--- a/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
+++ b/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie_000\Documents\Visual Studio 2012\Projects\CodePlex\solarcalculator\Source\Innovative.SolarCalculator.Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie_000\Documents\Visual Studio 2012\Projects\CodePlex TFS\solarcalculator\Source\Innovative.SolarCalculator.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="339" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="339"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +883,656 @@
         <v>357.32237072060843</v>
       </c>
     </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>35</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-106</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F3" s="9">
+        <f>D3+2415018.5+E3-C3/24</f>
+        <v>2456336.7923611109</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(F3-2451545)/36525</f>
+        <v>0.13119212487641108</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <f>MOD(280.46646+G3*(36000.76983 + G3*0.0003032),360)</f>
+        <v>323.48395640277977</v>
+      </c>
+      <c r="J3" s="9">
+        <f>357.52911+G3*(35999.05029 - 0.0001537*G3)</f>
+        <v>5080.3210084324937</v>
+      </c>
+      <c r="K3" s="9">
+        <f>0.016708634-G3*(0.000042037+0.0000001267*G3)</f>
+        <v>1.6703116895965531E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <f>SIN(RADIANS(J3))*(1.914602-G3*(0.004817+0.000014*G3))+SIN(RADIANS(2*J3))*(0.019993-0.000101*G3)+SIN(RADIANS(3*J3))*0.000289</f>
+        <v>1.2584329274559338</v>
+      </c>
+      <c r="M3" s="9">
+        <f>I3+L3</f>
+        <v>324.74238933023571</v>
+      </c>
+      <c r="N3" s="9">
+        <f>J3+L3</f>
+        <v>5081.5794413599497</v>
+      </c>
+      <c r="O3" s="9">
+        <f>(1.000001018*(1-K3*K3))/(1+K3*COS(RADIANS(N3)))</f>
+        <v>0.98738510363968335</v>
+      </c>
+      <c r="P3" s="9">
+        <f>M3-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G3))</f>
+        <v>324.74042960961833</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>23+(26+((21.448-G3*(46.815+G3*(0.00059-G3*0.001813))))/60)/60</f>
+        <v>23.437585065170264</v>
+      </c>
+      <c r="R3" s="9">
+        <f>Q3+0.00256*COS(RADIANS(125.04-1934.136*G3))</f>
+        <v>23.435984325009116</v>
+      </c>
+      <c r="S3" s="9">
+        <f>DEGREES(ATAN2(COS(RADIANS(P3)),COS(RADIANS(R3))*SIN(RADIANS(P3))))</f>
+        <v>-32.969791765354586</v>
+      </c>
+      <c r="T3" s="9">
+        <f>DEGREES(ASIN(SIN(RADIANS(R3))*SIN(RADIANS(P3))))</f>
+        <v>-13.273456138132213</v>
+      </c>
+      <c r="U3" s="9">
+        <f>TAN(RADIANS(R3/2))*TAN(RADIANS(R3/2))</f>
+        <v>4.3022042317213287E-2</v>
+      </c>
+      <c r="V3" s="9">
+        <f>4*DEGREES(U3*SIN(2*RADIANS(I3))-2*K3*SIN(RADIANS(J3))+4*K3*U3*SIN(RADIANS(J3))*COS(2*RADIANS(I3))-0.5*U3*U3*SIN(4*RADIANS(I3))-1.25*K3*K3*SIN(2*RADIANS(J3)))</f>
+        <v>-14.220819680016964</v>
+      </c>
+      <c r="W3" s="9">
+        <f>DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A3))*COS(RADIANS(T3)))-TAN(RADIANS(A3))*TAN(RADIANS(T3))))</f>
+        <v>81.550090654441718</v>
+      </c>
+      <c r="X3" s="4">
+        <f>(720-4*B3-V3+C3*60)/1440</f>
+        <v>0.51265334700001186</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>X3-W3*4/1440</f>
+        <v>0.28612531740434044</v>
+      </c>
+      <c r="Z3" s="5">
+        <f>X3+W3*4/1440</f>
+        <v>0.73918137659568328</v>
+      </c>
+      <c r="AA3" s="9">
+        <f>8*W3</f>
+        <v>652.40072523553374</v>
+      </c>
+      <c r="AB3" s="9">
+        <f>MOD(E3*1440+V3+4*B3-60*C3,1440)</f>
+        <v>1422.779180319983</v>
+      </c>
+      <c r="AC3" s="9">
+        <f>IF(AB3/4&lt;0,AB3/4+180,AB3/4-180)</f>
+        <v>175.69479507999574</v>
+      </c>
+      <c r="AD3" s="9">
+        <f>DEGREES(ACOS(SIN(RADIANS(A3))*SIN(RADIANS(T3))+COS(RADIANS(A3))*COS(RADIANS(T3))*COS(RADIANS(AC3))))</f>
+        <v>157.92787187499368</v>
+      </c>
+      <c r="AE3" s="9">
+        <f>90-AD3</f>
+        <v>-67.927871874993684</v>
+      </c>
+      <c r="AF3" s="9">
+        <f>IF(AE3&gt;85,0,IF(AE3&gt;5,58.1/TAN(RADIANS(AE3))-0.07/POWER(TAN(RADIANS(AE3)),3)+0.000086/POWER(TAN(RADIANS(AE3)),5),IF(AE3&gt;-0.575,1735+AE3*(-518.2+AE3*(103.4+AE3*(-12.79+AE3*0.711))),-20.772/TAN(RADIANS(AE3)))))/3600</f>
+        <v>2.3396850317577091E-3</v>
+      </c>
+      <c r="AG3" s="9">
+        <f>AE3+AF3</f>
+        <v>-67.925532189961928</v>
+      </c>
+      <c r="AH3" s="9">
+        <f>IF(AC3&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A3))*COS(RADIANS(AD3)))-SIN(RADIANS(T3)))/(COS(RADIANS(A3))*SIN(RADIANS(AD3)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A3))*COS(RADIANS(AD3)))-SIN(RADIANS(T3)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD3))))),360))</f>
+        <v>348.78822709328472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>61</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-149</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F7" si="0">D4+2415018.5+E4-C4/24</f>
+        <v>2456336.8756944444</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G7" si="1">(F4-2451545)/36525</f>
+        <v>0.13119440641873795</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I7" si="2">MOD(280.46646+G4*(36000.76983 + G4*0.0003032),360)</f>
+        <v>323.5660936831282</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ref="J4:J7" si="3">357.52911+G4*(35999.05029 - 0.0001537*G4)</f>
+        <v>5080.4031417893657</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ref="K4:K7" si="4">0.016708634-G4*(0.000042037+0.0000001267*G4)</f>
+        <v>1.6703116799980489E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ref="L4:L7" si="5">SIN(RADIANS(J4))*(1.914602-G4*(0.004817+0.000014*G4))+SIN(RADIANS(2*J4))*(0.019993-0.000101*G4)+SIN(RADIANS(3*J4))*0.000289</f>
+        <v>1.2605320984406281</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" ref="M4:M7" si="6">I4+L4</f>
+        <v>324.82662578156885</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" ref="N4:N7" si="7">J4+L4</f>
+        <v>5081.663673887806</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:O7" si="8">(1.000001018*(1-K4*K4))/(1+K4*COS(RADIANS(N4)))</f>
+        <v>0.98740100965328081</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" ref="P4:P7" si="9">M4-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G4))</f>
+        <v>324.82466583074233</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q7" si="10">23+(26+((21.448-G4*(46.815+G4*(0.00059-G4*0.001813))))/60)/60</f>
+        <v>23.437585035500668</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" ref="R4:R7" si="11">Q4+0.00256*COS(RADIANS(125.04-1934.136*G4))</f>
+        <v>23.435984141476965</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" ref="S4:S7" si="12">DEGREES(ATAN2(COS(RADIANS(P4)),COS(RADIANS(R4))*SIN(RADIANS(P4))))</f>
+        <v>-32.888213113134071</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" ref="T4:T7" si="13">DEGREES(ASIN(SIN(RADIANS(R4))*SIN(RADIANS(P4))))</f>
+        <v>-13.24533565256583</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" ref="U4:U7" si="14">TAN(RADIANS(R4/2))*TAN(RADIANS(R4/2))</f>
+        <v>4.3022041624220804E-2</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" ref="V4:V7" si="15">4*DEGREES(U4*SIN(2*RADIANS(I4))-2*K4*SIN(RADIANS(J4))+4*K4*U4*SIN(RADIANS(J4))*COS(2*RADIANS(I4))-0.5*U4*U4*SIN(4*RADIANS(I4))-1.25*K4*K4*SIN(2*RADIANS(J4)))</f>
+        <v>-14.218542691518463</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" ref="W4:W7" si="16">DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A4))*COS(RADIANS(T4)))-TAN(RADIANS(A4))*TAN(RADIANS(T4))))</f>
+        <v>66.806655732106847</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X7" si="17">(720-4*B4-V4+C4*60)/1440</f>
+        <v>0.54876287686911007</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" ref="Y4:Y7" si="18">X4-W4*4/1440</f>
+        <v>0.36318883316881329</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" ref="Z4:Z7" si="19">X4+W4*4/1440</f>
+        <v>0.7343369205694068</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" ref="AA4:AA7" si="20">8*W4</f>
+        <v>534.45324585685478</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" ref="AB4:AB7" si="21">MOD(E4*1440+V4+4*B4-60*C4,1440)</f>
+        <v>1370.7814573084815</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" ref="AC4:AC7" si="22">IF(AB4/4&lt;0,AB4/4+180,AB4/4-180)</f>
+        <v>162.69536432712039</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" ref="AD4:AD7" si="23">DEGREES(ACOS(SIN(RADIANS(A4))*SIN(RADIANS(T4))+COS(RADIANS(A4))*COS(RADIANS(T4))*COS(RADIANS(AC4))))</f>
+        <v>130.61298218479848</v>
+      </c>
+      <c r="AE4" s="9">
+        <f t="shared" ref="AE4:AE7" si="24">90-AD4</f>
+        <v>-40.612982184798483</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" ref="AF4:AF7" si="25">IF(AE4&gt;85,0,IF(AE4&gt;5,58.1/TAN(RADIANS(AE4))-0.07/POWER(TAN(RADIANS(AE4)),3)+0.000086/POWER(TAN(RADIANS(AE4)),5),IF(AE4&gt;-0.575,1735+AE4*(-518.2+AE4*(103.4+AE4*(-12.79+AE4*0.711))),-20.772/TAN(RADIANS(AE4)))))/3600</f>
+        <v>6.7288883012048394E-3</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" ref="AG4:AG7" si="26">AE4+AF4</f>
+        <v>-40.606253296497279</v>
+      </c>
+      <c r="AH4" s="9">
+        <f>IF(AC4&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A4))*COS(RADIANS(AD4)))-SIN(RADIANS(T4)))/(COS(RADIANS(A4))*SIN(RADIANS(AD4)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A4))*COS(RADIANS(AD4)))-SIN(RADIANS(T4)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD4))))),360))</f>
+        <v>337.57880009155303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15">
+        <v>-84</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7090277779</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13118984333409697</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40181912289063</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2388750760829</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116991950574E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563310448816958</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65815016777231</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4952061209642</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="8"/>
+        <v>0.9873692239615508</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65619067734195</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585094839857</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984508550757</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.05139192760052</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301551565764298</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043010241588E-2</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223009538608482</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="16"/>
+        <v>82.199773916850745</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="17"/>
+        <v>0.53487708995736705</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="18"/>
+        <v>0.30654438463278166</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="19"/>
+        <v>0.76320979528195243</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" si="20"/>
+        <v>657.59819133480596</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="21"/>
+        <v>1390.7769904613915</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="22"/>
+        <v>167.69424761534788</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" si="23"/>
+        <v>157.32813407708417</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" si="24"/>
+        <v>-67.328134077084172</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" si="25"/>
+        <v>2.4103149413600175E-3</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="26"/>
+        <v>-67.325723762142815</v>
+      </c>
+      <c r="AH5" s="9">
+        <f>IF(AC5&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A5))*COS(RADIANS(AD5)))-SIN(RADIANS(T5)))/(COS(RADIANS(A5))*SIN(RADIANS(AD5)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A5))*COS(RADIANS(AD5)))-SIN(RADIANS(T5)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD5))))),360))</f>
+        <v>327.44586544226365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>30</v>
+      </c>
+      <c r="B6" s="15">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E6" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7506944444</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119098410525401</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>323.4428877628352</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2799417542874</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116943958051E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2573823248461911</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="6"/>
+        <v>324.70027008768142</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5373240791332</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737716050649549</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69831048216031</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080005061</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984416778748</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.010589156044496</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287506988356013</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042663722941E-2</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221925507165402</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="16"/>
+        <v>83.159951233929917</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="17"/>
+        <v>-9.5681072866906983E-3</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.24056797182538489</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="19"/>
+        <v>0.22143175725200351</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="20"/>
+        <v>665.27960987143933</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="21"/>
+        <v>734.77807449283455</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="22"/>
+        <v>3.6945186232086371</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="23"/>
+        <v>43.43367839837498</v>
+      </c>
+      <c r="AE6" s="9">
+        <f t="shared" si="24"/>
+        <v>46.56632160162502</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" si="25"/>
+        <v>1.526328490540226E-2</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="26"/>
+        <v>46.581584886530422</v>
+      </c>
+      <c r="AH6" s="9">
+        <f>IF(AC6&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A6))*COS(RADIANS(AD6)))-SIN(RADIANS(T6)))/(COS(RADIANS(A6))*SIN(RADIANS(AD6)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A6))*COS(RADIANS(AD6)))-SIN(RADIANS(T6)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD6))))),360))</f>
+        <v>185.23352312257745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>33</v>
+      </c>
+      <c r="B7" s="15">
+        <v>-86</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7506944444</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119098410525401</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>323.4428877628352</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2799417542874</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116943958051E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2573823248461911</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="6"/>
+        <v>324.70027008768142</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5373240791332</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737716050649549</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69831048216031</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080005061</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984416778748</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.010589156044496</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287506988356013</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042663722941E-2</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221925507165402</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="16"/>
+        <v>82.209433962078904</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="17"/>
+        <v>0.4987652260466427</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27040568726309022</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72712476483019517</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" si="20"/>
+        <v>657.67547169663123</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="21"/>
+        <v>2.7780744928346053</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="22"/>
+        <v>-179.30548137679136</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" si="23"/>
+        <v>160.27732361733925</v>
+      </c>
+      <c r="AE7" s="9">
+        <f t="shared" si="24"/>
+        <v>-70.277323617339249</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" si="25"/>
+        <v>2.0685358681994024E-3</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" si="26"/>
+        <v>-70.275255081471045</v>
+      </c>
+      <c r="AH7" s="9" t="e">
+        <f>IF(AC7&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A7))*COS(RADIANS(AD7)))-SIN(RADIANS(T7)))/(COS(RADIANS(A7))*SIN(RADIANS(AD7)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A7))*COS(RADIANS(AD7)))-SIN(RADIANS(T7)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD7))))),360))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -893,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -949,23 +1599,23 @@
     <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f ca="1">RANDBETWEEN(1,360)</f>
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="B2" s="16">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>0.8481272416039074</v>
+        <v>3.5495762538318352</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">RADIANS(A2)</f>
-        <v>4.7647488579445199</v>
+        <v>3.4208453339088858</v>
       </c>
       <c r="E2" s="17">
         <f ca="1">DEGREES(C2)</f>
-        <v>48.594111433976181</v>
+        <v>203.37573840442155</v>
       </c>
       <c r="F2" s="16">
         <f t="shared" ref="F2:F21" ca="1" si="0">MOD(A2,B2)</f>
@@ -973,121 +1623,121 @@
       </c>
       <c r="G2" s="17">
         <f ca="1">SIN(A2)</f>
-        <v>0.31320015487066988</v>
+        <v>0.9395300555699313</v>
       </c>
       <c r="H2" s="17">
         <f ca="1">ASIN(G2)</f>
-        <v>0.31856086231201175</v>
+        <v>1.221255477432819</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" ref="I2:I21" ca="1" si="1">COS(A2)</f>
-        <v>-0.9496871395301657</v>
+        <v>0.34246645774551659</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">ACOS(I2)</f>
-        <v>2.8230317912777814</v>
+        <v>1.2212554774328193</v>
       </c>
       <c r="K2" s="17">
         <f ca="1">TAN(A2)</f>
-        <v>-0.32979298321931361</v>
+        <v>2.7434221200958802</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(1,360)</f>
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="B3" s="16">
         <f t="shared" ref="B3:B21" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>3.433889971408715</v>
+        <v>4.6678910745942579</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D21" ca="1" si="4">RADIANS(A3)</f>
-        <v>3.6651914291880923</v>
+        <v>3.0892327760299634</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E21" ca="1" si="5">DEGREES(C3)</f>
-        <v>196.7474026740183</v>
+        <v>267.45045780103749</v>
       </c>
       <c r="F3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G21" ca="1" si="6">SIN(A3)</f>
-        <v>0.46771851834275896</v>
+        <v>0.87758978777711572</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H21" ca="1" si="7">ASIN(G3)</f>
-        <v>0.48670779051614704</v>
+        <v>1.0708113989715786</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.88387747318237175</v>
+        <v>0.47941231147032193</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J21" ca="1" si="8">ACOS(I3)</f>
-        <v>2.6548848630736464</v>
+        <v>1.0708113989715786</v>
       </c>
       <c r="K3" s="17">
         <f t="shared" ref="K3:K21" ca="1" si="9">TAN(A3)</f>
-        <v>-0.5291666916894644</v>
+        <v>1.8305532978191841</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="B4" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="17">
         <f t="shared" ref="C4:C21" ca="1" si="10">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>6.2649390130595455</v>
+        <v>2.2773962752671175</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4014257279586958</v>
+        <v>5.2185344634630457</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>358.95456435516729</v>
+        <v>130.4851948516197</v>
       </c>
       <c r="F4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.84622040417517064</v>
+        <v>-0.52157672161837043</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0088514248714473</v>
+        <v>-0.54869790896964232</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.53283302033339752</v>
+        <v>-0.85320438551722932</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1327412287183458</v>
+        <v>2.5928947446201507</v>
       </c>
       <c r="K4" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5881530833912738</v>
+        <v>0.61131509691218988</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="B5" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1095,15 +1745,15 @@
       </c>
       <c r="C5" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.2895387081774605</v>
+        <v>6.4246288284769291</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.026548245743669</v>
+        <v>1.1519173063162575</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>131.18090501040311</v>
+        <v>368.1041168098065</v>
       </c>
       <c r="F5" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1111,137 +1761,137 @@
       </c>
       <c r="G5" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.85550437075082075</v>
+        <v>-2.6551154023966794E-2</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.026524130260978</v>
+        <v>-2.655427461434199E-2</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51779558865081332</v>
+        <v>-0.99964745596634996</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0265241302609778</v>
+        <v>3.1150383789754512</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.6522048265802214</v>
+        <v>2.6560517776039391E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="B6" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.8645792399344301</v>
+        <v>6.0149327351138364</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7647488579445199</v>
+        <v>1.3613568165555769</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>164.12830052903604</v>
+        <v>344.63025977710356</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31320015487066988</v>
+        <v>0.51397845598753522</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31856086231201175</v>
+        <v>0.53981633974483101</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.9496871395301657</v>
+        <v>-0.85780309324498782</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8230317912777814</v>
+        <v>2.6017763138449621</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.32979298321931361</v>
+        <v>-0.59917999834111513</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="B7" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.5108232405624955</v>
+        <v>0.80399022653808361</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.530727415391778</v>
+        <v>0.85521133347722145</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>373.0426928399209</v>
+        <v>46.065246750399147</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46774516204513333</v>
+        <v>-0.95375265275947185</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.486737934869511</v>
+        <v>-1.2654824574366923</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88386337370850021</v>
+        <v>0.30059254374363709</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48673793486951111</v>
+        <v>1.2654824574366916</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52920527760141867</v>
+        <v>-3.1729085521591909</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="B8" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.8575456462563427</v>
+        <v>2.7416258847965862</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5204027626653138</v>
+        <v>3.9793506945470716</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>163.72530529647173</v>
+        <v>157.08359220266445</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1249,137 +1899,137 @@
       </c>
       <c r="G8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98359318394668083</v>
+        <v>0.97262306248562436</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3894024056369543</v>
+        <v>1.3362637120549066</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18040079959254857</v>
+        <v>-0.23238842122852266</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3894024056369543</v>
+        <v>1.8053289415348868</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>5.4522662103949351</v>
+        <v>-4.1853335779117016</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="B9" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.79543719646969</v>
+        <v>3.9831460364895257</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4537856055185257</v>
+        <v>3.1939525311496229</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>332.0540917908433</v>
+        <v>228.21745707511161</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76255845047960269</v>
+        <v>0.70868040823920841</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86725877128165396</v>
+        <v>0.78762609179199206</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64691932232864036</v>
+        <v>0.70552964429420606</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.86725877128165396</v>
+        <v>0.78762609179199194</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1787535542062797</v>
+        <v>1.0044658136911517</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B10" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3151516784748924</v>
+        <v>6.6962389596994871</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1170107212763709</v>
+        <v>1.1693705988362009</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>247.23997913540455</v>
+        <v>383.66623100185359</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92002603819679063</v>
+        <v>-0.85551997897532228</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.168146928204135</v>
+        <v>-1.0265542746143421</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39185723042955001</v>
+        <v>-0.5177697997895051</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.168146928204135</v>
+        <v>2.1150383789754512</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3478603091954366</v>
+        <v>1.6523172640102353</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="B11" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4410329475985506</v>
+        <v>4.7205144751909351</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7576202181510405</v>
+        <v>3.9793506945470716</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>254.45244457594063</v>
+        <v>270.46555655885334</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1387,91 +2037,91 @@
       </c>
       <c r="G11" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.79582409652745523</v>
+        <v>0.97262306248562436</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92036732051033798</v>
+        <v>1.3362637120549066</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60552787498698979</v>
+        <v>-0.23238842122852266</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.92036732051033809</v>
+        <v>1.8053289415348868</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.314265006453343</v>
+        <v>-4.1853335779117016</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="B12" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.689195104874246</v>
+        <v>0.29485645382257031</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9896753472735358</v>
+        <v>4.3982297150257104</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>154.0795297965351</v>
+        <v>16.894030366227327</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78498038868131048</v>
+        <v>0.623012211003653</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.90266447076744327</v>
+        <v>0.67258771281654095</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61952061255920987</v>
+        <v>0.78221210994227119</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.90266447076744338</v>
+        <v>0.67258771281654084</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2670771121538542</v>
+        <v>0.79647477082607754</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B13" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5419819616041748</v>
+        <v>2.0090740878180742</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1189770347066181</v>
+        <v>4.3458698374658802</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>317.53217653755229</v>
+        <v>115.11146596107137</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1479,75 +2129,75 @@
       </c>
       <c r="G13" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.37143208943692263</v>
+        <v>-0.72716319344364899</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.38055098076550709</v>
+        <v>-0.81418036640633418</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.92846012458076077</v>
+        <v>-0.68646463135461999</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7610416728242857</v>
+        <v>2.327412287183459</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40005174116081721</v>
+        <v>1.0592871944599935</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>342</v>
+        <v>1</v>
       </c>
       <c r="B14" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3279110867861941</v>
+        <v>5.9722769844242016</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9690260418206069</v>
+        <v>1.7453292519943295E-2</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>76.083700841479299</v>
+        <v>342.18626529062527</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42013968223930687</v>
+        <v>0.8414709848078965</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43359924128746302</v>
+        <v>1</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.907459446701534</v>
+        <v>0.54030230586813977</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7079934123023301</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.46298452648925037</v>
+        <v>1.5574077246549023</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1555,315 +2205,315 @@
       </c>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.2960755046610632</v>
+        <v>4.4834344232823202</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4434609527920612</v>
+        <v>5.2883476335428181</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>303.44277439969648</v>
+        <v>256.8818701777472</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98023965944031155</v>
+        <v>0.98663250484391052</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.371669411540696</v>
+        <v>1.4071052553798489</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19781357400426822</v>
+        <v>0.16296103947088339</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7699232420490976</v>
+        <v>1.4071052553798491</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.9553710576967838</v>
+        <v>6.0544072868422907</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B16" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7931759007375812</v>
+        <v>0.50080278308733761</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5029494701453698</v>
+        <v>4.2935099599060509</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>389.22030860224487</v>
+        <v>28.693885839310088</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37963562682930313</v>
+        <v>0.81675999962280854</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38940240563695444</v>
+        <v>0.9557730199961274</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92513609314625822</v>
+        <v>0.5769775585030581</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38940240563695427</v>
+        <v>0.9557730199961274</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41035651904814957</v>
+        <v>1.4155836524073051</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="B17" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0819249990407238E-2</v>
+        <v>6.7533808001965614</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.351032163829113</v>
+        <v>5.3756140961425354</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>4.6306019278630535</v>
+        <v>386.94021729594567</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.35493835765184628</v>
+        <v>0.1236030360001129</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.36284813102261243</v>
+        <v>0.12391994820026263</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.93488970593723519</v>
+        <v>0.99233174366819221</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7787445225671807</v>
+        <v>0.12391994820026286</v>
       </c>
       <c r="K17" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37965800179179154</v>
+        <v>0.12455818005298264</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.2102903144813624</v>
+        <v>0.88882407419963128</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7627825445142729</v>
+        <v>2.9845130209103035</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>241.23186554459016</v>
+        <v>50.925868181261599</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45202578717835057</v>
+        <v>0.97659086794356575</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4690350851266164</v>
+        <v>1.3539967061511653</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89200486978816018</v>
+        <v>0.21510526876214117</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46903508512661629</v>
+        <v>1.3539967061511651</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.50675260022481827</v>
+        <v>4.5400601926838862</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="B19" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.23762813476282477</v>
+        <v>2.3468035785769974</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0491638646268449</v>
+        <v>0.20943951023931956</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>13.615089215475821</v>
+        <v>134.4619403986602</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.45987672323214268</v>
+        <v>-0.53657291800043494</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.47785636564469963</v>
+        <v>-0.56637061435917291</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88798276978174939</v>
+        <v>0.84385395873249214</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47785636564469947</v>
+        <v>0.56637061435917291</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.51788924164054706</v>
+        <v>-0.63585992866158081</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="B20" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6712976036898235</v>
+        <v>5.3089784117959251</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4660765716752369</v>
+        <v>2.6878070480712677</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>153.0540785148373</v>
+        <v>304.18205652197327</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73319032007329221</v>
+        <v>-6.1920337256057306E-2</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.82300164692441746</v>
+        <v>-6.1959974100131314E-2</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68002349558733877</v>
+        <v>-0.99808109481850027</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3185910066653754</v>
+        <v>3.0796326794896602</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0781838051640156</v>
+        <v>6.2039384953301253E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="B21" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64678022753624886</v>
+        <v>3.8887142861013277</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7472955654245768</v>
+        <v>1.8849555921538759</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>37.057777310338132</v>
+        <v>222.806916325835</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96835693843472415</v>
+        <v>0.92681850541778499</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3185608623120117</v>
+        <v>1.1858497779470298</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.24956930858045798</v>
+        <v>0.37550959776701209</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8230317912777814</v>
+        <v>1.1858497779470298</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.8801122779988715</v>
+        <v>2.4681619615827688</v>
       </c>
     </row>
   </sheetData>
@@ -1907,351 +2557,351 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <f ca="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>38331.03125</v>
+        <v>10217.03125</v>
       </c>
       <c r="B3" s="23">
         <f t="shared" ref="B3:B37" ca="1" si="0">A3</f>
-        <v>38331.03125</v>
+        <v>10217.03125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A37" ca="1" si="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>40616.03125</v>
+        <v>7565.03125</v>
       </c>
       <c r="B4" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40616.03125</v>
+        <v>7565.03125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>30294.03125</v>
+        <v>7515.03125</v>
       </c>
       <c r="B5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>30294.03125</v>
+        <v>7515.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>11995.03125</v>
+        <v>5702.03125</v>
       </c>
       <c r="B6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>11995.03125</v>
+        <v>5702.03125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>26167.03125</v>
+        <v>26857.03125</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>26167.03125</v>
+        <v>26857.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>31258.03125</v>
+        <v>38559.03125</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>31258.03125</v>
+        <v>38559.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>9328.03125</v>
+        <v>9000.03125</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>9328.03125</v>
+        <v>9000.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>10249.03125</v>
+        <v>38095.03125</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10249.03125</v>
+        <v>38095.03125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>10568.03125</v>
+        <v>18707.03125</v>
       </c>
       <c r="B11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10568.03125</v>
+        <v>18707.03125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>2424.03125</v>
+        <v>29479.03125</v>
       </c>
       <c r="B12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>2424.03125</v>
+        <v>29479.03125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>639.03125</v>
+        <v>10969.03125</v>
       </c>
       <c r="B13" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>639.03125</v>
+        <v>10969.03125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>38636.03125</v>
+        <v>30777.03125</v>
       </c>
       <c r="B14" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>38636.03125</v>
+        <v>30777.03125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>1186.03125</v>
+        <v>26237.03125</v>
       </c>
       <c r="B15" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>1186.03125</v>
+        <v>26237.03125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>7724.03125</v>
+        <v>17493.03125</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>7724.03125</v>
+        <v>17493.03125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>41246.03125</v>
+        <v>16500.03125</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>41246.03125</v>
+        <v>16500.03125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>19048.03125</v>
+        <v>32798.03125</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>19048.03125</v>
+        <v>32798.03125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>23838.03125</v>
+        <v>36180.03125</v>
       </c>
       <c r="B19" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>23838.03125</v>
+        <v>36180.03125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>26225.03125</v>
+        <v>16224.03125</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>26225.03125</v>
+        <v>16224.03125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>13997.03125</v>
+        <v>5272.03125</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>13997.03125</v>
+        <v>5272.03125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>34037.03125</v>
+        <v>40653.03125</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>34037.03125</v>
+        <v>40653.03125</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32596.03125</v>
+        <v>32552.03125</v>
       </c>
       <c r="B23" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32596.03125</v>
+        <v>32552.03125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>33108.03125</v>
+        <v>13790.03125</v>
       </c>
       <c r="B24" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>33108.03125</v>
+        <v>13790.03125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>36165.03125</v>
+        <v>20322.03125</v>
       </c>
       <c r="B25" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>36165.03125</v>
+        <v>20322.03125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>2159.03125</v>
+        <v>35074.03125</v>
       </c>
       <c r="B26" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>2159.03125</v>
+        <v>35074.03125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>4623.03125</v>
+        <v>35351.03125</v>
       </c>
       <c r="B27" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>4623.03125</v>
+        <v>35351.03125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>36095.03125</v>
+        <v>6013.03125</v>
       </c>
       <c r="B28" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>36095.03125</v>
+        <v>6013.03125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>28543.03125</v>
+        <v>25527.03125</v>
       </c>
       <c r="B29" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>28543.03125</v>
+        <v>25527.03125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>20410.03125</v>
+        <v>23061.03125</v>
       </c>
       <c r="B30" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>20410.03125</v>
+        <v>23061.03125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>13303.03125</v>
+        <v>33856.03125</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>13303.03125</v>
+        <v>33856.03125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>16538.03125</v>
+        <v>35999.03125</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>16538.03125</v>
+        <v>35999.03125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29784.03125</v>
+        <v>27793.03125</v>
       </c>
       <c r="B33" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29784.03125</v>
+        <v>27793.03125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>6229.03125</v>
+        <v>35621.03125</v>
       </c>
       <c r="B34" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>6229.03125</v>
+        <v>35621.03125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>12157.03125</v>
+        <v>39696.03125</v>
       </c>
       <c r="B35" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>12157.03125</v>
+        <v>39696.03125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>14583.03125</v>
+        <v>40518.03125</v>
       </c>
       <c r="B36" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>14583.03125</v>
+        <v>40518.03125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8759.03125</v>
+        <v>15171.03125</v>
       </c>
       <c r="B37" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8759.03125</v>
+        <v>15171.03125</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
+++ b/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,12 +639,13 @@
     <col min="21" max="21" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="7" customWidth="1"/>
-    <col min="25" max="25" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="7" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="7" customWidth="1"/>
     <col min="26" max="26" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" style="10" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -767,120 +768,120 @@
         <v>41318</v>
       </c>
       <c r="E2" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="9">
         <f>D2+2415018.5+E2-C2/24</f>
-        <v>2456336.7506944444</v>
+        <v>2456336.75</v>
       </c>
       <c r="G2" s="9">
         <f>(F2-2451545)/36525</f>
-        <v>0.13119098410525401</v>
+        <v>0.13119096509240247</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9">
         <f>MOD(280.46646+G2*(36000.76983 + G2*0.0003032),360)</f>
-        <v>323.4428877628352</v>
+        <v>323.44220328554093</v>
       </c>
       <c r="J2" s="9">
         <f>357.52911+G2*(35999.05029 - 0.0001537*G2)</f>
-        <v>5080.2799417542874</v>
+        <v>5080.2792573096904</v>
       </c>
       <c r="K2" s="9">
         <f>0.016708634-G2*(0.000042037+0.0000001267*G2)</f>
-        <v>1.6703116943958051E-2</v>
+        <v>1.6703116944757929E-2</v>
       </c>
       <c r="L2" s="9">
         <f>SIN(RADIANS(J2))*(1.914602-G2*(0.004817+0.000014*G2))+SIN(RADIANS(2*J2))*(0.019993-0.000101*G2)+SIN(RADIANS(3*J2))*0.000289</f>
-        <v>1.2573823248461911</v>
+        <v>1.257364809063499</v>
       </c>
       <c r="M2" s="9">
         <f>I2+L2</f>
-        <v>324.70027008768142</v>
+        <v>324.69956809460444</v>
       </c>
       <c r="N2" s="9">
         <f>J2+L2</f>
-        <v>5081.5373240791332</v>
+        <v>5081.5366221187542</v>
       </c>
       <c r="O2" s="9">
         <f>(1.000001018*(1-K2*K2))/(1+K2*COS(RADIANS(N2)))</f>
-        <v>0.98737716050649549</v>
+        <v>0.98737702817675499</v>
       </c>
       <c r="P2" s="9">
         <f>M2-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G2))</f>
-        <v>324.69831048216031</v>
+        <v>324.69760849100157</v>
       </c>
       <c r="Q2" s="9">
         <f>23+(26+((21.448-G2*(46.815+G2*(0.00059-G2*0.001813))))/60)/60</f>
-        <v>23.437585080005061</v>
+        <v>23.437585080252308</v>
       </c>
       <c r="R2" s="9">
         <f>Q2+0.00256*COS(RADIANS(125.04-1934.136*G2))</f>
-        <v>23.435984416778748</v>
+        <v>23.435984418308262</v>
       </c>
       <c r="S2" s="9">
         <f>DEGREES(ATAN2(COS(RADIANS(P2)),COS(RADIANS(R2))*SIN(RADIANS(P2))))</f>
-        <v>-33.010589156044496</v>
+        <v>-33.011269158096972</v>
       </c>
       <c r="T2" s="9">
         <f>DEGREES(ASIN(SIN(RADIANS(R2))*SIN(RADIANS(P2))))</f>
-        <v>-13.287506988356013</v>
+        <v>-13.287741116058582</v>
       </c>
       <c r="U2" s="9">
         <f>TAN(RADIANS(R2/2))*TAN(RADIANS(R2/2))</f>
-        <v>4.3022042663722941E-2</v>
+        <v>4.3022042669498189E-2</v>
       </c>
       <c r="V2" s="9">
         <f>4*DEGREES(U2*SIN(2*RADIANS(I2))-2*K2*SIN(RADIANS(J2))+4*K2*U2*SIN(RADIANS(J2))*COS(2*RADIANS(I2))-0.5*U2*U2*SIN(4*RADIANS(I2))-1.25*K2*K2*SIN(2*RADIANS(J2)))</f>
-        <v>-14.221925507165402</v>
+        <v>-14.221943752995639</v>
       </c>
       <c r="W2" s="9">
         <f>DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A2))*COS(RADIANS(T2)))-TAN(RADIANS(A2))*TAN(RADIANS(T2))))</f>
-        <v>79.0649276777186</v>
+        <v>79.06470528244202</v>
       </c>
       <c r="X2" s="4">
         <f>(720-4*B2-V2+C2*60)/1440</f>
-        <v>0.50432078160219818</v>
+        <v>0.50432079427291365</v>
       </c>
       <c r="Y2" s="5">
         <f>X2-W2*4/1440</f>
-        <v>0.28469598249742428</v>
+        <v>0.28469661293279691</v>
       </c>
       <c r="Z2" s="5">
         <f>X2+W2*4/1440</f>
-        <v>0.72394558070697212</v>
+        <v>0.72394497561303039</v>
       </c>
       <c r="AA2" s="9">
         <f>8*W2</f>
-        <v>632.5194214217488</v>
+        <v>632.51764225953616</v>
       </c>
       <c r="AB2" s="9">
         <f>MOD(E2*1440+V2+4*B2-60*C2,1440)</f>
-        <v>1434.7780744928345</v>
+        <v>1433.7780562470043</v>
       </c>
       <c r="AC2" s="9">
         <f>IF(AB2/4&lt;0,AB2/4+180,AB2/4-180)</f>
-        <v>178.69451862320864</v>
+        <v>178.44451406175108</v>
       </c>
       <c r="AD2" s="9">
         <f>DEGREES(ACOS(SIN(RADIANS(A2))*SIN(RADIANS(T2))+COS(RADIANS(A2))*COS(RADIANS(T2))*COS(RADIANS(AC2))))</f>
-        <v>151.66469443377497</v>
+        <v>151.65535995236513</v>
       </c>
       <c r="AE2" s="9">
         <f>90-AD2</f>
-        <v>-61.664694433774969</v>
+        <v>-61.655359952365131</v>
       </c>
       <c r="AF2" s="9">
         <f>IF(AE2&gt;85,0,IF(AE2&gt;5,58.1/TAN(RADIANS(AE2))-0.07/POWER(TAN(RADIANS(AE2)),3)+0.000086/POWER(TAN(RADIANS(AE2)),5),IF(AE2&gt;-0.575,1735+AE2*(-518.2+AE2*(103.4+AE2*(-12.79+AE2*0.711))),-20.772/TAN(RADIANS(AE2)))))/3600</f>
-        <v>3.1114126970845464E-3</v>
+        <v>3.1126261796899685E-3</v>
       </c>
       <c r="AG2" s="9">
         <f>AE2+AF2</f>
-        <v>-61.661583021077881</v>
+        <v>-61.652247326185439</v>
       </c>
       <c r="AH2" s="9">
         <f>IF(AC2&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A2))*COS(RADIANS(AD2)))-SIN(RADIANS(T2)))/(COS(RADIANS(A2))*SIN(RADIANS(AD2)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A2))*COS(RADIANS(AD2)))-SIN(RADIANS(T2)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD2))))),360))</f>
-        <v>357.32237072060843</v>
+        <v>356.81019044967275</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -897,120 +898,120 @@
         <v>41318</v>
       </c>
       <c r="E3" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9">
         <f>D3+2415018.5+E3-C3/24</f>
-        <v>2456336.7923611109</v>
+        <v>2456336.7916666665</v>
       </c>
       <c r="G3" s="9">
         <f>(F3-2451545)/36525</f>
-        <v>0.13119212487641108</v>
+        <v>0.13119210586355953</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9">
         <f>MOD(280.46646+G3*(36000.76983 + G3*0.0003032),360)</f>
-        <v>323.48395640277977</v>
+        <v>323.48327192548641</v>
       </c>
       <c r="J3" s="9">
         <f>357.52911+G3*(35999.05029 - 0.0001537*G3)</f>
-        <v>5080.3210084324937</v>
+        <v>5080.3203239878967</v>
       </c>
       <c r="K3" s="9">
         <f>0.016708634-G3*(0.000042037+0.0000001267*G3)</f>
-        <v>1.6703116895965531E-2</v>
+        <v>1.6703116896765405E-2</v>
       </c>
       <c r="L3" s="9">
         <f>SIN(RADIANS(J3))*(1.914602-G3*(0.004817+0.000014*G3))+SIN(RADIANS(2*J3))*(0.019993-0.000101*G3)+SIN(RADIANS(3*J3))*0.000289</f>
-        <v>1.2584329274559338</v>
+        <v>1.2584154229669602</v>
       </c>
       <c r="M3" s="9">
         <f>I3+L3</f>
-        <v>324.74238933023571</v>
+        <v>324.74168734845335</v>
       </c>
       <c r="N3" s="9">
         <f>J3+L3</f>
-        <v>5081.5794413599497</v>
+        <v>5081.5787394108638</v>
       </c>
       <c r="O3" s="9">
         <f>(1.000001018*(1-K3*K3))/(1+K3*COS(RADIANS(N3)))</f>
-        <v>0.98738510363968335</v>
+        <v>0.98738497120017499</v>
       </c>
       <c r="P3" s="9">
         <f>M3-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G3))</f>
-        <v>324.74042960961833</v>
+        <v>324.73972762975433</v>
       </c>
       <c r="Q3" s="9">
         <f>23+(26+((21.448-G3*(46.815+G3*(0.00059-G3*0.001813))))/60)/60</f>
-        <v>23.437585065170264</v>
+        <v>23.437585065417512</v>
       </c>
       <c r="R3" s="9">
         <f>Q3+0.00256*COS(RADIANS(125.04-1934.136*G3))</f>
-        <v>23.435984325009116</v>
+        <v>23.435984326538591</v>
       </c>
       <c r="S3" s="9">
         <f>DEGREES(ATAN2(COS(RADIANS(P3)),COS(RADIANS(R3))*SIN(RADIANS(P3))))</f>
-        <v>-32.969791765354586</v>
+        <v>-32.970471677751632</v>
       </c>
       <c r="T3" s="9">
         <f>DEGREES(ASIN(SIN(RADIANS(R3))*SIN(RADIANS(P3))))</f>
-        <v>-13.273456138132213</v>
+        <v>-13.273690370312794</v>
       </c>
       <c r="U3" s="9">
         <f>TAN(RADIANS(R3/2))*TAN(RADIANS(R3/2))</f>
-        <v>4.3022042317213287E-2</v>
+        <v>4.3022042322988369E-2</v>
       </c>
       <c r="V3" s="9">
         <f>4*DEGREES(U3*SIN(2*RADIANS(I3))-2*K3*SIN(RADIANS(J3))+4*K3*U3*SIN(RADIANS(J3))*COS(2*RADIANS(I3))-0.5*U3*U3*SIN(4*RADIANS(I3))-1.25*K3*K3*SIN(2*RADIANS(J3)))</f>
-        <v>-14.220819680016964</v>
+        <v>-14.220838289000575</v>
       </c>
       <c r="W3" s="9">
         <f>DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A3))*COS(RADIANS(T3)))-TAN(RADIANS(A3))*TAN(RADIANS(T3))))</f>
-        <v>81.550090654441718</v>
+        <v>81.549916634555743</v>
       </c>
       <c r="X3" s="4">
         <f>(720-4*B3-V3+C3*60)/1440</f>
-        <v>0.51265334700001186</v>
+        <v>0.51265335992291705</v>
       </c>
       <c r="Y3" s="5">
         <f>X3-W3*4/1440</f>
-        <v>0.28612531740434044</v>
+        <v>0.2861258137158178</v>
       </c>
       <c r="Z3" s="5">
         <f>X3+W3*4/1440</f>
-        <v>0.73918137659568328</v>
+        <v>0.7391809061300163</v>
       </c>
       <c r="AA3" s="9">
         <f>8*W3</f>
-        <v>652.40072523553374</v>
+        <v>652.39933307644594</v>
       </c>
       <c r="AB3" s="9">
         <f>MOD(E3*1440+V3+4*B3-60*C3,1440)</f>
-        <v>1422.779180319983</v>
+        <v>1421.7791617109995</v>
       </c>
       <c r="AC3" s="9">
         <f>IF(AB3/4&lt;0,AB3/4+180,AB3/4-180)</f>
-        <v>175.69479507999574</v>
+        <v>175.44479042774987</v>
       </c>
       <c r="AD3" s="9">
         <f>DEGREES(ACOS(SIN(RADIANS(A3))*SIN(RADIANS(T3))+COS(RADIANS(A3))*COS(RADIANS(T3))*COS(RADIANS(AC3))))</f>
-        <v>157.92787187499368</v>
+        <v>157.88716591738623</v>
       </c>
       <c r="AE3" s="9">
         <f>90-AD3</f>
-        <v>-67.927871874993684</v>
+        <v>-67.887165917386227</v>
       </c>
       <c r="AF3" s="9">
         <f>IF(AE3&gt;85,0,IF(AE3&gt;5,58.1/TAN(RADIANS(AE3))-0.07/POWER(TAN(RADIANS(AE3)),3)+0.000086/POWER(TAN(RADIANS(AE3)),5),IF(AE3&gt;-0.575,1735+AE3*(-518.2+AE3*(103.4+AE3*(-12.79+AE3*0.711))),-20.772/TAN(RADIANS(AE3)))))/3600</f>
-        <v>2.3396850317577091E-3</v>
+        <v>2.3444597441887303E-3</v>
       </c>
       <c r="AG3" s="9">
         <f>AE3+AF3</f>
-        <v>-67.925532189961928</v>
+        <v>-67.884821457642033</v>
       </c>
       <c r="AH3" s="9">
         <f>IF(AC3&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A3))*COS(RADIANS(AD3)))-SIN(RADIANS(T3)))/(COS(RADIANS(A3))*SIN(RADIANS(AD3)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A3))*COS(RADIANS(AD3)))-SIN(RADIANS(T3)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD3))))),360))</f>
-        <v>348.78822709328472</v>
+        <v>348.15037466946842</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -1027,120 +1028,120 @@
         <v>41318</v>
       </c>
       <c r="E4" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:F7" si="0">D4+2415018.5+E4-C4/24</f>
-        <v>2456336.8756944444</v>
+        <f t="shared" ref="F4:F40" si="0">D4+2415018.5+E4-C4/24</f>
+        <v>2456336.875</v>
       </c>
       <c r="G4" s="9">
-        <f t="shared" ref="G4:G7" si="1">(F4-2451545)/36525</f>
-        <v>0.13119440641873795</v>
+        <f t="shared" ref="G4:G40" si="1">(F4-2451545)/36525</f>
+        <v>0.13119438740588638</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9">
-        <f t="shared" ref="I4:I7" si="2">MOD(280.46646+G4*(36000.76983 + G4*0.0003032),360)</f>
-        <v>323.5660936831282</v>
+        <f t="shared" ref="I4:I40" si="2">MOD(280.46646+G4*(36000.76983 + G4*0.0003032),360)</f>
+        <v>323.56540920583393</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J7" si="3">357.52911+G4*(35999.05029 - 0.0001537*G4)</f>
-        <v>5080.4031417893657</v>
+        <f t="shared" ref="J4:J40" si="3">357.52911+G4*(35999.05029 - 0.0001537*G4)</f>
+        <v>5080.4024573447678</v>
       </c>
       <c r="K4" s="9">
-        <f t="shared" ref="K4:K7" si="4">0.016708634-G4*(0.000042037+0.0000001267*G4)</f>
-        <v>1.6703116799980489E-2</v>
+        <f t="shared" ref="K4:K40" si="4">0.016708634-G4*(0.000042037+0.0000001267*G4)</f>
+        <v>1.6703116800780363E-2</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" ref="L4:L7" si="5">SIN(RADIANS(J4))*(1.914602-G4*(0.004817+0.000014*G4))+SIN(RADIANS(2*J4))*(0.019993-0.000101*G4)+SIN(RADIANS(3*J4))*0.000289</f>
-        <v>1.2605320984406281</v>
+        <f t="shared" ref="L4:L40" si="5">SIN(RADIANS(J4))*(1.914602-G4*(0.004817+0.000014*G4))+SIN(RADIANS(2*J4))*(0.019993-0.000101*G4)+SIN(RADIANS(3*J4))*0.000289</f>
+        <v>1.2605146165663346</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" ref="M4:M7" si="6">I4+L4</f>
-        <v>324.82662578156885</v>
+        <f t="shared" ref="M4:M40" si="6">I4+L4</f>
+        <v>324.82592382240028</v>
       </c>
       <c r="N4" s="9">
-        <f t="shared" ref="N4:N7" si="7">J4+L4</f>
-        <v>5081.663673887806</v>
+        <f t="shared" ref="N4:N40" si="7">J4+L4</f>
+        <v>5081.6629719613338</v>
       </c>
       <c r="O4" s="9">
-        <f t="shared" ref="O4:O7" si="8">(1.000001018*(1-K4*K4))/(1+K4*COS(RADIANS(N4)))</f>
-        <v>0.98740100965328081</v>
+        <f t="shared" ref="O4:O40" si="8">(1.000001018*(1-K4*K4))/(1+K4*COS(RADIANS(N4)))</f>
+        <v>0.987400876994456</v>
       </c>
       <c r="P4" s="9">
-        <f t="shared" ref="P4:P7" si="9">M4-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G4))</f>
-        <v>324.82466583074233</v>
+        <f t="shared" ref="P4:P40" si="9">M4-0.00569-0.00478*SIN(RADIANS(125.04-1934.136*G4))</f>
+        <v>324.82396387349229</v>
       </c>
       <c r="Q4" s="9">
-        <f t="shared" ref="Q4:Q7" si="10">23+(26+((21.448-G4*(46.815+G4*(0.00059-G4*0.001813))))/60)/60</f>
-        <v>23.437585035500668</v>
+        <f t="shared" ref="Q4:Q40" si="10">23+(26+((21.448-G4*(46.815+G4*(0.00059-G4*0.001813))))/60)/60</f>
+        <v>23.437585035747915</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" ref="R4:R7" si="11">Q4+0.00256*COS(RADIANS(125.04-1934.136*G4))</f>
-        <v>23.435984141476965</v>
+        <f t="shared" ref="R4:R40" si="11">Q4+0.00256*COS(RADIANS(125.04-1934.136*G4))</f>
+        <v>23.435984143006362</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" ref="S4:S7" si="12">DEGREES(ATAN2(COS(RADIANS(P4)),COS(RADIANS(R4))*SIN(RADIANS(P4))))</f>
-        <v>-32.888213113134071</v>
+        <f t="shared" ref="S4:S40" si="12">DEGREES(ATAN2(COS(RADIANS(P4)),COS(RADIANS(R4))*SIN(RADIANS(P4))))</f>
+        <v>-32.88889284638546</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" ref="T4:T7" si="13">DEGREES(ASIN(SIN(RADIANS(R4))*SIN(RADIANS(P4))))</f>
-        <v>-13.24533565256583</v>
+        <f t="shared" ref="T4:T40" si="13">DEGREES(ASIN(SIN(RADIANS(R4))*SIN(RADIANS(P4))))</f>
+        <v>-13.245570093284808</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" ref="U4:U7" si="14">TAN(RADIANS(R4/2))*TAN(RADIANS(R4/2))</f>
-        <v>4.3022041624220804E-2</v>
+        <f t="shared" ref="U4:U40" si="14">TAN(RADIANS(R4/2))*TAN(RADIANS(R4/2))</f>
+        <v>4.3022041629995587E-2</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" ref="V4:V7" si="15">4*DEGREES(U4*SIN(2*RADIANS(I4))-2*K4*SIN(RADIANS(J4))+4*K4*U4*SIN(RADIANS(J4))*COS(2*RADIANS(I4))-0.5*U4*U4*SIN(4*RADIANS(I4))-1.25*K4*K4*SIN(2*RADIANS(J4)))</f>
-        <v>-14.218542691518463</v>
+        <f t="shared" ref="V4:V40" si="15">4*DEGREES(U4*SIN(2*RADIANS(I4))-2*K4*SIN(RADIANS(J4))+4*K4*U4*SIN(RADIANS(J4))*COS(2*RADIANS(I4))-0.5*U4*U4*SIN(4*RADIANS(I4))-1.25*K4*K4*SIN(2*RADIANS(J4)))</f>
+        <v>-14.218562026146421</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4:W7" si="16">DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A4))*COS(RADIANS(T4)))-TAN(RADIANS(A4))*TAN(RADIANS(T4))))</f>
-        <v>66.806655732106847</v>
+        <f t="shared" ref="W4:W40" si="16">DEGREES(ACOS(COS(RADIANS(90.833))/(COS(RADIANS(A4))*COS(RADIANS(T4)))-TAN(RADIANS(A4))*TAN(RADIANS(T4))))</f>
+        <v>66.806171957361343</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" ref="X4:X7" si="17">(720-4*B4-V4+C4*60)/1440</f>
-        <v>0.54876287686911007</v>
+        <f t="shared" ref="X4:X40" si="17">(720-4*B4-V4+C4*60)/1440</f>
+        <v>0.54876289029593495</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y7" si="18">X4-W4*4/1440</f>
-        <v>0.36318883316881329</v>
+        <f t="shared" ref="Y4:Y40" si="18">X4-W4*4/1440</f>
+        <v>0.36319019041437567</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" ref="Z4:Z7" si="19">X4+W4*4/1440</f>
-        <v>0.7343369205694068</v>
+        <f t="shared" ref="Z4:Z40" si="19">X4+W4*4/1440</f>
+        <v>0.73433559017749417</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" ref="AA4:AA7" si="20">8*W4</f>
-        <v>534.45324585685478</v>
+        <f t="shared" ref="AA4:AA40" si="20">8*W4</f>
+        <v>534.44937565889074</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB7" si="21">MOD(E4*1440+V4+4*B4-60*C4,1440)</f>
-        <v>1370.7814573084815</v>
+        <f t="shared" ref="AB4:AB40" si="21">MOD(E4*1440+V4+4*B4-60*C4,1440)</f>
+        <v>1369.7814379738536</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC7" si="22">IF(AB4/4&lt;0,AB4/4+180,AB4/4-180)</f>
-        <v>162.69536432712039</v>
+        <f t="shared" ref="AC4:AC40" si="22">IF(AB4/4&lt;0,AB4/4+180,AB4/4-180)</f>
+        <v>162.4453594934634</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" ref="AD4:AD7" si="23">DEGREES(ACOS(SIN(RADIANS(A4))*SIN(RADIANS(T4))+COS(RADIANS(A4))*COS(RADIANS(T4))*COS(RADIANS(AC4))))</f>
-        <v>130.61298218479848</v>
+        <f t="shared" ref="AD4:AD40" si="23">DEGREES(ACOS(SIN(RADIANS(A4))*SIN(RADIANS(T4))+COS(RADIANS(A4))*COS(RADIANS(T4))*COS(RADIANS(AC4))))</f>
+        <v>130.56667586459261</v>
       </c>
       <c r="AE4" s="9">
-        <f t="shared" ref="AE4:AE7" si="24">90-AD4</f>
-        <v>-40.612982184798483</v>
+        <f t="shared" ref="AE4:AE40" si="24">90-AD4</f>
+        <v>-40.566675864592611</v>
       </c>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF7" si="25">IF(AE4&gt;85,0,IF(AE4&gt;5,58.1/TAN(RADIANS(AE4))-0.07/POWER(TAN(RADIANS(AE4)),3)+0.000086/POWER(TAN(RADIANS(AE4)),5),IF(AE4&gt;-0.575,1735+AE4*(-518.2+AE4*(103.4+AE4*(-12.79+AE4*0.711))),-20.772/TAN(RADIANS(AE4)))))/3600</f>
-        <v>6.7288883012048394E-3</v>
+        <f t="shared" ref="AF4:AF40" si="25">IF(AE4&gt;85,0,IF(AE4&gt;5,58.1/TAN(RADIANS(AE4))-0.07/POWER(TAN(RADIANS(AE4)),3)+0.000086/POWER(TAN(RADIANS(AE4)),5),IF(AE4&gt;-0.575,1735+AE4*(-518.2+AE4*(103.4+AE4*(-12.79+AE4*0.711))),-20.772/TAN(RADIANS(AE4)))))/3600</f>
+        <v>6.7399040195376576E-3</v>
       </c>
       <c r="AG4" s="9">
-        <f t="shared" ref="AG4:AG7" si="26">AE4+AF4</f>
-        <v>-40.606253296497279</v>
+        <f t="shared" ref="AG4:AG40" si="26">AE4+AF4</f>
+        <v>-40.559935960573071</v>
       </c>
       <c r="AH4" s="9">
         <f>IF(AC4&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A4))*COS(RADIANS(AD4)))-SIN(RADIANS(T4)))/(COS(RADIANS(A4))*SIN(RADIANS(AD4)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A4))*COS(RADIANS(AD4)))-SIN(RADIANS(T4)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD4))))),360))</f>
-        <v>337.57880009155303</v>
+        <v>337.26419358991586</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1157,120 +1158,120 @@
         <v>41318</v>
       </c>
       <c r="E5" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>2456336.7090277779</v>
+        <v>2456336.7083333335</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
-        <v>0.13118984333409697</v>
+        <v>0.1311898243212454</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9">
         <f t="shared" si="2"/>
-        <v>323.40181912289063</v>
+        <v>323.40113464559727</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="3"/>
-        <v>5080.2388750760829</v>
+        <v>5080.2381906314831</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="4"/>
-        <v>1.6703116991950574E-2</v>
+        <v>1.6703116992750448E-2</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="5"/>
-        <v>1.2563310448816958</v>
+        <v>1.2563135178143203</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="6"/>
-        <v>324.65815016777231</v>
+        <v>324.65744816341157</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="7"/>
-        <v>5081.4952061209642</v>
+        <v>5081.4945041492974</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="8"/>
-        <v>0.9873692239615508</v>
+        <v>0.98736909174165111</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="9"/>
-        <v>324.65619067734195</v>
+        <v>324.65548867489935</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="10"/>
-        <v>23.437585094839857</v>
+        <v>23.437585095087105</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="11"/>
-        <v>23.435984508550757</v>
+        <v>23.43598451008031</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="12"/>
-        <v>-33.05139192760052</v>
+        <v>-33.052072019360743</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="13"/>
-        <v>-13.301551565764298</v>
+        <v>-13.301785588848746</v>
       </c>
       <c r="U5" s="9">
         <f t="shared" si="14"/>
-        <v>4.3022043010241588E-2</v>
+        <v>4.3022043016016968E-2</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="15"/>
-        <v>-14.223009538608482</v>
+        <v>-14.223027421064808</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" si="16"/>
-        <v>82.199773916850745</v>
+        <v>82.199612941847249</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="17"/>
-        <v>0.53487708995736705</v>
+        <v>0.53487710237573949</v>
       </c>
       <c r="Y5" s="5">
         <f t="shared" si="18"/>
-        <v>0.30654438463278166</v>
+        <v>0.30654484420394157</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="19"/>
-        <v>0.76320979528195243</v>
+        <v>0.76320936054753741</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="20"/>
-        <v>657.59819133480596</v>
+        <v>657.59690353477799</v>
       </c>
       <c r="AB5" s="9">
         <f t="shared" si="21"/>
-        <v>1390.7769904613915</v>
+        <v>1389.7769725789353</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" si="22"/>
-        <v>167.69424761534788</v>
+        <v>167.44424314473383</v>
       </c>
       <c r="AD5" s="9">
         <f t="shared" si="23"/>
-        <v>157.32813407708417</v>
+        <v>157.21465903798006</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="24"/>
-        <v>-67.328134077084172</v>
+        <v>-67.214659037980056</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="25"/>
-        <v>2.4103149413600175E-3</v>
+        <v>2.4237477442092025E-3</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="26"/>
-        <v>-67.325723762142815</v>
+        <v>-67.212235290235853</v>
       </c>
       <c r="AH5" s="9">
         <f>IF(AC5&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A5))*COS(RADIANS(AD5)))-SIN(RADIANS(T5)))/(COS(RADIANS(A5))*SIN(RADIANS(AD5)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A5))*COS(RADIANS(AD5)))-SIN(RADIANS(T5)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD5))))),360))</f>
-        <v>327.44586544226365</v>
+        <v>326.88884152667777</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1278,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="15">
-        <v>97</v>
+        <v>-97</v>
       </c>
       <c r="C6" s="3">
         <v>-6</v>
@@ -1287,120 +1288,120 @@
         <v>41318</v>
       </c>
       <c r="E6" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>2456336.7506944444</v>
+        <v>2456336.75</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>0.13119098410525401</v>
+        <v>0.13119096509240247</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9">
         <f t="shared" si="2"/>
-        <v>323.4428877628352</v>
+        <v>323.44220328554093</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="3"/>
-        <v>5080.2799417542874</v>
+        <v>5080.2792573096904</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="4"/>
-        <v>1.6703116943958051E-2</v>
+        <v>1.6703116944757929E-2</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="5"/>
-        <v>1.2573823248461911</v>
+        <v>1.257364809063499</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="6"/>
-        <v>324.70027008768142</v>
+        <v>324.69956809460444</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="7"/>
-        <v>5081.5373240791332</v>
+        <v>5081.5366221187542</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="8"/>
-        <v>0.98737716050649549</v>
+        <v>0.98737702817675499</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="9"/>
-        <v>324.69831048216031</v>
+        <v>324.69760849100157</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="10"/>
-        <v>23.437585080005061</v>
+        <v>23.437585080252308</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="11"/>
-        <v>23.435984416778748</v>
+        <v>23.435984418308262</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="12"/>
-        <v>-33.010589156044496</v>
+        <v>-33.011269158096972</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="13"/>
-        <v>-13.287506988356013</v>
+        <v>-13.287741116058582</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="14"/>
-        <v>4.3022042663722941E-2</v>
+        <v>4.3022042669498189E-2</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="15"/>
-        <v>-14.221925507165402</v>
+        <v>-14.221943752995639</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="16"/>
-        <v>83.159951233929917</v>
+        <v>83.15980845877381</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="17"/>
-        <v>-9.5681072866906983E-3</v>
+        <v>0.52932079427291368</v>
       </c>
       <c r="Y6" s="5">
         <f t="shared" si="18"/>
-        <v>-0.24056797182538489</v>
+        <v>0.2983213263318753</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="19"/>
-        <v>0.22143175725200351</v>
+        <v>0.76032026221395199</v>
       </c>
       <c r="AA6" s="9">
         <f t="shared" si="20"/>
-        <v>665.27960987143933</v>
+        <v>665.27846767019048</v>
       </c>
       <c r="AB6" s="9">
         <f t="shared" si="21"/>
-        <v>734.77807449283455</v>
+        <v>1397.7780562470043</v>
       </c>
       <c r="AC6" s="9">
         <f t="shared" si="22"/>
-        <v>3.6945186232086371</v>
+        <v>169.44451406175108</v>
       </c>
       <c r="AD6" s="9">
         <f t="shared" si="23"/>
-        <v>43.43367839837498</v>
+        <v>160.64762348305609</v>
       </c>
       <c r="AE6" s="9">
         <f t="shared" si="24"/>
-        <v>46.56632160162502</v>
+        <v>-70.647623483056094</v>
       </c>
       <c r="AF6" s="9">
         <f t="shared" si="25"/>
-        <v>1.526328490540226E-2</v>
+        <v>2.0265486231879522E-3</v>
       </c>
       <c r="AG6" s="9">
         <f t="shared" si="26"/>
-        <v>46.581584886530422</v>
+        <v>-70.645596934432902</v>
       </c>
       <c r="AH6" s="9">
         <f>IF(AC6&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A6))*COS(RADIANS(AD6)))-SIN(RADIANS(T6)))/(COS(RADIANS(A6))*SIN(RADIANS(AD6)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A6))*COS(RADIANS(AD6)))-SIN(RADIANS(T6)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD6))))),360))</f>
-        <v>185.23352312257745</v>
+        <v>327.4518912078056</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1417,120 +1418,4410 @@
         <v>41318</v>
       </c>
       <c r="E7" s="7">
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>2456336.7506944444</v>
+        <v>2456336.75</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.13119098410525401</v>
+        <v>0.13119096509240247</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
         <f t="shared" si="2"/>
-        <v>323.4428877628352</v>
+        <v>323.44220328554093</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="3"/>
-        <v>5080.2799417542874</v>
+        <v>5080.2792573096904</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="4"/>
-        <v>1.6703116943958051E-2</v>
+        <v>1.6703116944757929E-2</v>
       </c>
       <c r="L7" s="9">
         <f t="shared" si="5"/>
-        <v>1.2573823248461911</v>
+        <v>1.257364809063499</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="6"/>
-        <v>324.70027008768142</v>
+        <v>324.69956809460444</v>
       </c>
       <c r="N7" s="9">
         <f t="shared" si="7"/>
-        <v>5081.5373240791332</v>
+        <v>5081.5366221187542</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="8"/>
-        <v>0.98737716050649549</v>
+        <v>0.98737702817675499</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="9"/>
-        <v>324.69831048216031</v>
+        <v>324.69760849100157</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" si="10"/>
-        <v>23.437585080005061</v>
+        <v>23.437585080252308</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="11"/>
-        <v>23.435984416778748</v>
+        <v>23.435984418308262</v>
       </c>
       <c r="S7" s="9">
         <f t="shared" si="12"/>
-        <v>-33.010589156044496</v>
+        <v>-33.011269158096972</v>
       </c>
       <c r="T7" s="9">
         <f t="shared" si="13"/>
-        <v>-13.287506988356013</v>
+        <v>-13.287741116058582</v>
       </c>
       <c r="U7" s="9">
         <f t="shared" si="14"/>
-        <v>4.3022042663722941E-2</v>
+        <v>4.3022042669498189E-2</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="15"/>
-        <v>-14.221925507165402</v>
+        <v>-14.221943752995639</v>
       </c>
       <c r="W7" s="9">
         <f t="shared" si="16"/>
-        <v>82.209433962078904</v>
+        <v>82.209272936452649</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="17"/>
-        <v>0.4987652260466427</v>
+        <v>0.49876523871735812</v>
       </c>
       <c r="Y7" s="5">
         <f t="shared" si="18"/>
-        <v>0.27040568726309022</v>
+        <v>0.2704061472272119</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="19"/>
-        <v>0.72712476483019517</v>
+        <v>0.72712433020750433</v>
       </c>
       <c r="AA7" s="9">
         <f t="shared" si="20"/>
-        <v>657.67547169663123</v>
+        <v>657.67418349162119</v>
       </c>
       <c r="AB7" s="9">
         <f t="shared" si="21"/>
-        <v>2.7780744928346053</v>
+        <v>1.7780562470043719</v>
       </c>
       <c r="AC7" s="9">
         <f t="shared" si="22"/>
-        <v>-179.30548137679136</v>
+        <v>-179.55548593824892</v>
       </c>
       <c r="AD7" s="9">
         <f t="shared" si="23"/>
-        <v>160.27732361733925</v>
+        <v>160.28356890733207</v>
       </c>
       <c r="AE7" s="9">
         <f t="shared" si="24"/>
-        <v>-70.277323617339249</v>
+        <v>-70.283568907332068</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="25"/>
-        <v>2.0685358681994024E-3</v>
+        <v>2.0678261294604251E-3</v>
       </c>
       <c r="AG7" s="9">
         <f t="shared" si="26"/>
-        <v>-70.275255081471045</v>
+        <v>-70.281501081202606</v>
       </c>
       <c r="AH7" s="9" t="e">
         <f>IF(AC7&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A7))*COS(RADIANS(AD7)))-SIN(RADIANS(T7)))/(COS(RADIANS(A7))*SIN(RADIANS(AD7)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A7))*COS(RADIANS(AD7)))-SIN(RADIANS(T7)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD7))))),360))</f>
         <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>46</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-100</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="16"/>
+        <v>77.11170542152442</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="17"/>
+        <v>0.53765412760624698</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="18"/>
+        <v>0.32345494587979029</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="19"/>
+        <v>0.75185330933270367</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="20"/>
+        <v>616.89364337219536</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="21"/>
+        <v>1385.7780562470043</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="22"/>
+        <v>166.44451406175108</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="23"/>
+        <v>145.34212936452786</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="24"/>
+        <v>-55.342129364527864</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="25"/>
+        <v>3.9890637537583493E-3</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="26"/>
+        <v>-55.338140300774107</v>
+      </c>
+      <c r="AH8" s="9">
+        <f>IF(AC8&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A8))*COS(RADIANS(AD8)))-SIN(RADIANS(T8)))/(COS(RADIANS(A8))*SIN(RADIANS(AD8)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A8))*COS(RADIANS(AD8)))-SIN(RADIANS(T8)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD8))))),360))</f>
+        <v>336.35122926711495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-71</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="16"/>
+        <v>78.885289715506417</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="17"/>
+        <v>0.49876599126462834</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27964018649933275</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="19"/>
+        <v>0.71789179602992392</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="20"/>
+        <v>631.08231772405134</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="21"/>
+        <v>1.7769725789352151</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="22"/>
+        <v>-179.5557568552662</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="23"/>
+        <v>151.29919192937072</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="24"/>
+        <v>-61.299191929370721</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="25"/>
+        <v>3.1590884969110592E-3</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="26"/>
+        <v>-61.296032840873814</v>
+      </c>
+      <c r="AH9" s="9" t="e">
+        <f>IF(AC9&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A9))*COS(RADIANS(AD9)))-SIN(RADIANS(T9)))/(COS(RADIANS(A9))*SIN(RADIANS(AD9)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A9))*COS(RADIANS(AD9)))-SIN(RADIANS(T9)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD9))))),360))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15">
+        <v>-105</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7916666665</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119210586355953</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>323.48327192548641</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3203239878967</v>
+      </c>
+      <c r="K10" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116896765405E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2584154229669602</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="6"/>
+        <v>324.74168734845335</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5787394108638</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98738497120017499</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="9"/>
+        <v>324.73972762975433</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585065417512</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984326538591</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.970471677751632</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.273690370312794</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042322988369E-2</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.220838289000575</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="16"/>
+        <v>79.720573777355028</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50987558214513928</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28842954387470865</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73132162041556992</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="20"/>
+        <v>637.76459021884023</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="21"/>
+        <v>1425.7791617109995</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="22"/>
+        <v>176.44479042774987</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="23"/>
+        <v>153.09146350497937</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="24"/>
+        <v>-63.091463504979373</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="25"/>
+        <v>2.9283690922487699E-3</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="26"/>
+        <v>-63.088535135887128</v>
+      </c>
+      <c r="AH10" s="9">
+        <f>IF(AC10&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A10))*COS(RADIANS(AD10)))-SIN(RADIANS(T10)))/(COS(RADIANS(A10))*SIN(RADIANS(AD10)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A10))*COS(RADIANS(AD10)))-SIN(RADIANS(T10)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD10))))),360))</f>
+        <v>352.3362986202909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>41</v>
+      </c>
+      <c r="B11" s="15">
+        <v>-87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="16"/>
+        <v>79.309641678113181</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50154301649513588</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="18"/>
+        <v>0.2812384562781548</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72184757671211697</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="20"/>
+        <v>634.47713342490545</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="21"/>
+        <v>1437.7780562470043</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="22"/>
+        <v>179.44451406175108</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="23"/>
+        <v>152.28348834923523</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="24"/>
+        <v>-62.283488349235228</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="25"/>
+        <v>3.0314391933470284E-3</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="26"/>
+        <v>-62.280456910041877</v>
+      </c>
+      <c r="AH11" s="9">
+        <f>IF(AC11&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A11))*COS(RADIANS(AD11)))-SIN(RADIANS(T11)))/(COS(RADIANS(A11))*SIN(RADIANS(AD11)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A11))*COS(RADIANS(AD11)))-SIN(RADIANS(T11)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD11))))),360))</f>
+        <v>358.83756954606622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>32</v>
+      </c>
+      <c r="B12" s="15">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="16"/>
+        <v>82.532884999761123</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="17"/>
+        <v>-6.7903168381974804E-3</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.23604833072642281</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="19"/>
+        <v>0.22246769705002786</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="20"/>
+        <v>660.26307999808898</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="21"/>
+        <v>729.77805624700432</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="22"/>
+        <v>2.4445140617510788</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="23"/>
+        <v>45.348263999735437</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="24"/>
+        <v>44.651736000264563</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="25"/>
+        <v>1.6316145609557995E-2</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="26"/>
+        <v>44.668052145874121</v>
+      </c>
+      <c r="AH12" s="9">
+        <f>IF(AC12&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A12))*COS(RADIANS(AD12)))-SIN(RADIANS(T12)))/(COS(RADIANS(A12))*SIN(RADIANS(AD12)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A12))*COS(RADIANS(AD12)))-SIN(RADIANS(T12)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD12))))),360))</f>
+        <v>183.34513261276547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-104</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7916666665</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119210586355953</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>323.48327192548641</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3203239878967</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116896765405E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2584154229669602</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="6"/>
+        <v>324.74168734845335</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5787394108638</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98738497120017499</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="9"/>
+        <v>324.73972762975433</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585065417512</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984326538591</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.970471677751632</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.273690370312794</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042322988369E-2</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.220838289000575</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="16"/>
+        <v>80.106825124094087</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50709780436736152</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28457884568932235</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72961676304540068</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="20"/>
+        <v>640.85460099275269</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="21"/>
+        <v>1429.7791617109995</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="22"/>
+        <v>177.44479042774987</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="23"/>
+        <v>154.17460039220245</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="24"/>
+        <v>-64.17460039220245</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="25"/>
+        <v>2.7924833016652524E-3</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="26"/>
+        <v>-64.171807908900789</v>
+      </c>
+      <c r="AH13" s="9">
+        <f>IF(AC13&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A13))*COS(RADIANS(AD13)))-SIN(RADIANS(T13)))/(COS(RADIANS(A13))*SIN(RADIANS(AD13)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A13))*COS(RADIANS(AD13)))-SIN(RADIANS(T13)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD13))))),360))</f>
+        <v>354.28356704495212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>42</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-83</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="16"/>
+        <v>78.885289715506417</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="17"/>
+        <v>0.53209932459796172</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="18"/>
+        <v>0.31297351983266608</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="19"/>
+        <v>0.75122512936325736</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" si="20"/>
+        <v>631.08231772405134</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="21"/>
+        <v>1393.7769725789353</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="22"/>
+        <v>168.44424314473383</v>
+      </c>
+      <c r="AD14" s="9">
+        <f t="shared" si="23"/>
+        <v>149.59866489977188</v>
+      </c>
+      <c r="AE14" s="9">
+        <f t="shared" si="24"/>
+        <v>-59.598664899771876</v>
+      </c>
+      <c r="AF14" s="9">
+        <f t="shared" si="25"/>
+        <v>3.3854196277524951E-3</v>
+      </c>
+      <c r="AG14" s="9">
+        <f t="shared" si="26"/>
+        <v>-59.595279480144121</v>
+      </c>
+      <c r="AH14" s="9">
+        <f>IF(AC14&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A14))*COS(RADIANS(AD14)))-SIN(RADIANS(T14)))/(COS(RADIANS(A14))*SIN(RADIANS(AD14)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A14))*COS(RADIANS(AD14)))-SIN(RADIANS(T14)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD14))))),360))</f>
+        <v>337.34197639797196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="15">
+        <v>-157</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.9166666665</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119552817704344</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <f t="shared" si="2"/>
+        <v>323.6064778457785</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.4435240229732</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116752787843E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2615631951605082</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="6"/>
+        <v>324.86804104093903</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.7050872181335</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98740883975642202</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="9"/>
+        <v>324.86608097691828</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585020913119</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598405124381</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.848111489306859</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.231500578901043</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041283512669E-2</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.217391253855636</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="16"/>
+        <v>85.741288431878715</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52931763281517752</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29114738717106997</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="19"/>
+        <v>0.76748787845928512</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" si="20"/>
+        <v>685.93030745502972</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="21"/>
+        <v>1397.7826087461444</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="22"/>
+        <v>169.44565218653611</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="23"/>
+        <v>167.27718441218633</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="24"/>
+        <v>-77.27718441218633</v>
+      </c>
+      <c r="AF15" s="9">
+        <f t="shared" si="25"/>
+        <v>1.3027402223635548E-3</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="26"/>
+        <v>-77.275881671963973</v>
+      </c>
+      <c r="AH15" s="9">
+        <f>IF(AC15&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A15))*COS(RADIANS(AD15)))-SIN(RADIANS(T15)))/(COS(RADIANS(A15))*SIN(RADIANS(AD15)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A15))*COS(RADIANS(AD15)))-SIN(RADIANS(T15)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD15))))),360))</f>
+        <v>305.94153169860999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15">
+        <v>-95</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K16" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="16"/>
+        <v>83.463942680816032</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52376523871735814</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29192095349286917</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="19"/>
+        <v>0.75560952394184711</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" si="20"/>
+        <v>667.71154144652826</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="21"/>
+        <v>1405.7780562470043</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="22"/>
+        <v>171.44451406175108</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" si="23"/>
+        <v>162.39453917350332</v>
+      </c>
+      <c r="AE16" s="9">
+        <f t="shared" si="24"/>
+        <v>-72.394539173503318</v>
+      </c>
+      <c r="AF16" s="9">
+        <f t="shared" si="25"/>
+        <v>1.830957108102764E-3</v>
+      </c>
+      <c r="AG16" s="9">
+        <f t="shared" si="26"/>
+        <v>-72.392708216395221</v>
+      </c>
+      <c r="AH16" s="9">
+        <f>IF(AC16&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A16))*COS(RADIANS(AD16)))-SIN(RADIANS(T16)))/(COS(RADIANS(A16))*SIN(RADIANS(AD16)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A16))*COS(RADIANS(AD16)))-SIN(RADIANS(T16)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD16))))),360))</f>
+        <v>331.40024988173275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-86</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="16"/>
+        <v>80.082571151990706</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="17"/>
+        <v>0.54043265793129502</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="18"/>
+        <v>0.31798107139798748</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" si="19"/>
+        <v>0.76288424446460257</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="20"/>
+        <v>640.66056921592565</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="21"/>
+        <v>1381.7769725789353</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="22"/>
+        <v>165.44424314473383</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" si="23"/>
+        <v>151.26064299079388</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="24"/>
+        <v>-61.260642990793883</v>
+      </c>
+      <c r="AF17" s="9">
+        <f t="shared" si="25"/>
+        <v>3.1641361377856554E-3</v>
+      </c>
+      <c r="AG17" s="9">
+        <f t="shared" si="26"/>
+        <v>-61.2574788546561</v>
+      </c>
+      <c r="AH17" s="9">
+        <f>IF(AC17&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A17))*COS(RADIANS(AD17)))-SIN(RADIANS(T17)))/(COS(RADIANS(A17))*SIN(RADIANS(AD17)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A17))*COS(RADIANS(AD17)))-SIN(RADIANS(T17)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD17))))),360))</f>
+        <v>329.42502835700969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>32</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-90</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="16"/>
+        <v>82.532884999761123</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50987634982846919</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28061833594024388</v>
+      </c>
+      <c r="Z18" s="5">
+        <f t="shared" si="19"/>
+        <v>0.7391343637166945</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" si="20"/>
+        <v>660.26307999808898</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="21"/>
+        <v>1425.7780562470043</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="22"/>
+        <v>176.44451406175108</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" si="23"/>
+        <v>161.00606697710236</v>
+      </c>
+      <c r="AE18" s="9">
+        <f t="shared" si="24"/>
+        <v>-71.006066977102364</v>
+      </c>
+      <c r="AF18" s="9">
+        <f t="shared" si="25"/>
+        <v>1.986086937180693E-3</v>
+      </c>
+      <c r="AG18" s="9">
+        <f t="shared" si="26"/>
+        <v>-71.004080890165184</v>
+      </c>
+      <c r="AH18" s="9">
+        <f>IF(AC18&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A18))*COS(RADIANS(AD18)))-SIN(RADIANS(T18)))/(COS(RADIANS(A18))*SIN(RADIANS(AD18)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A18))*COS(RADIANS(AD18)))-SIN(RADIANS(T18)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD18))))),360))</f>
+        <v>349.31320273220717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>39</v>
+      </c>
+      <c r="B19" s="15">
+        <v>-94</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="16"/>
+        <v>80.094696323073165</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52098746093958037</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29850219337548822</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" si="19"/>
+        <v>0.74347272850367252</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" si="20"/>
+        <v>640.75757058458532</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="21"/>
+        <v>1409.7780562470043</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="22"/>
+        <v>172.44451406175108</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" si="23"/>
+        <v>153.43372836327055</v>
+      </c>
+      <c r="AE19" s="9">
+        <f t="shared" si="24"/>
+        <v>-63.433728363270546</v>
+      </c>
+      <c r="AF19" s="9">
+        <f t="shared" si="25"/>
+        <v>2.8851536353823133E-3</v>
+      </c>
+      <c r="AG19" s="9">
+        <f t="shared" si="26"/>
+        <v>-63.430843209635164</v>
+      </c>
+      <c r="AH19" s="9">
+        <f>IF(AC19&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A19))*COS(RADIANS(AD19)))-SIN(RADIANS(T19)))/(COS(RADIANS(A19))*SIN(RADIANS(AD19)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A19))*COS(RADIANS(AD19)))-SIN(RADIANS(T19)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD19))))),360))</f>
+        <v>343.37366890460061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>34</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-118</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.8333333335</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119324663472931</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
+        <f t="shared" si="2"/>
+        <v>323.52434056588845</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3613906665605</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116848772886E-2</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2594653589907534</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="6"/>
+        <v>324.78380592487923</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.6208560255509</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98739292080760133</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="9"/>
+        <v>324.78184609107848</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585050582712</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984234771286</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.92967957462939</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.259633359826987</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041976487478E-2</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.219711042289356</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="16"/>
+        <v>81.898394402215189</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50431924377936765</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27682370377321436</v>
+      </c>
+      <c r="Z20" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73181478378552089</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="20"/>
+        <v>655.18715521772151</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="21"/>
+        <v>1433.7802889577106</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="22"/>
+        <v>178.44507223942765</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="23"/>
+        <v>159.21161220874191</v>
+      </c>
+      <c r="AE20" s="9">
+        <f t="shared" si="24"/>
+        <v>-69.211612208741911</v>
+      </c>
+      <c r="AF20" s="9">
+        <f t="shared" si="25"/>
+        <v>2.1904793358604757E-3</v>
+      </c>
+      <c r="AG20" s="9">
+        <f t="shared" si="26"/>
+        <v>-69.209421729406046</v>
+      </c>
+      <c r="AH20" s="9">
+        <f>IF(AC20&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A20))*COS(RADIANS(AD20)))-SIN(RADIANS(T20)))/(COS(RADIANS(A20))*SIN(RADIANS(AD20)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A20))*COS(RADIANS(AD20)))-SIN(RADIANS(T20)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD20))))),360))</f>
+        <v>355.7322787047159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15">
+        <v>-88</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="16"/>
+        <v>78.474652505518108</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50432079427291365</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28633564842425224</v>
+      </c>
+      <c r="Z21" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72230594012157501</v>
+      </c>
+      <c r="AA21" s="9">
+        <f t="shared" si="20"/>
+        <v>627.79722004414486</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" si="21"/>
+        <v>1433.7780562470043</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="22"/>
+        <v>178.44451406175108</v>
+      </c>
+      <c r="AD21" s="9">
+        <f t="shared" si="23"/>
+        <v>150.25743547524664</v>
+      </c>
+      <c r="AE21" s="9">
+        <f t="shared" si="24"/>
+        <v>-60.257435475246638</v>
+      </c>
+      <c r="AF21" s="9">
+        <f t="shared" si="25"/>
+        <v>3.2968333691858662E-3</v>
+      </c>
+      <c r="AG21" s="9">
+        <f t="shared" si="26"/>
+        <v>-60.254138641877454</v>
+      </c>
+      <c r="AH21" s="9">
+        <f>IF(AC21&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A21))*COS(RADIANS(AD21)))-SIN(RADIANS(T21)))/(COS(RADIANS(A21))*SIN(RADIANS(AD21)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A21))*COS(RADIANS(AD21)))-SIN(RADIANS(T21)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD21))))),360))</f>
+        <v>356.9474677757832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>25</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-80</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="16"/>
+        <v>84.619896452135208</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52376599126462842</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28871072334203063</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" si="19"/>
+        <v>0.7588212591872262</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="20"/>
+        <v>676.95917161708167</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="21"/>
+        <v>1405.7769725789353</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="22"/>
+        <v>171.44424314473383</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="23"/>
+        <v>165.79266060905022</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" si="24"/>
+        <v>-75.792660609050216</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" si="25"/>
+        <v>1.4608209257494325E-3</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="26"/>
+        <v>-75.791199788124473</v>
+      </c>
+      <c r="AH22" s="9">
+        <f>IF(AC22&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A22))*COS(RADIANS(AD22)))-SIN(RADIANS(T22)))/(COS(RADIANS(A22))*SIN(RADIANS(AD22)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A22))*COS(RADIANS(AD22)))-SIN(RADIANS(T22)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD22))))),360))</f>
+        <v>323.84996702391732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>44</v>
+      </c>
+      <c r="B23" s="15">
+        <v>-93</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="16"/>
+        <v>78.036136059114952</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="17"/>
+        <v>0.5182096831618026</v>
+      </c>
+      <c r="Y23" s="5">
+        <f t="shared" si="18"/>
+        <v>0.30144263855314996</v>
+      </c>
+      <c r="Z23" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73497672777045531</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" si="20"/>
+        <v>624.28908847291962</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" si="21"/>
+        <v>1413.7780562470043</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="22"/>
+        <v>173.44451406175108</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="23"/>
+        <v>148.77804728813672</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="24"/>
+        <v>-58.778047288136719</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="25"/>
+        <v>3.497458527407348E-3</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="26"/>
+        <v>-58.774549829609313</v>
+      </c>
+      <c r="AH23" s="9">
+        <f>IF(AC23&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A23))*COS(RADIANS(AD23)))-SIN(RADIANS(T23)))/(COS(RADIANS(A23))*SIN(RADIANS(AD23)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A23))*COS(RADIANS(AD23)))-SIN(RADIANS(T23)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD23))))),360))</f>
+        <v>347.62265025620934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>29</v>
+      </c>
+      <c r="B24" s="15">
+        <v>-90</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="16"/>
+        <v>83.463942680816032</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50987634982846919</v>
+      </c>
+      <c r="Y24" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27803206460398022</v>
+      </c>
+      <c r="Z24" s="5">
+        <f t="shared" si="19"/>
+        <v>0.74172063505295815</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" si="20"/>
+        <v>667.71154144652826</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="21"/>
+        <v>1425.7780562470043</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="22"/>
+        <v>176.44451406175108</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="23"/>
+        <v>163.94474672313359</v>
+      </c>
+      <c r="AE24" s="9">
+        <f t="shared" si="24"/>
+        <v>-73.944746723133591</v>
+      </c>
+      <c r="AF24" s="9">
+        <f t="shared" si="25"/>
+        <v>1.6605443657781369E-3</v>
+      </c>
+      <c r="AG24" s="9">
+        <f t="shared" si="26"/>
+        <v>-73.943086178767814</v>
+      </c>
+      <c r="AH24" s="9">
+        <f>IF(AC24&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A24))*COS(RADIANS(AD24)))-SIN(RADIANS(T24)))/(COS(RADIANS(A24))*SIN(RADIANS(AD24)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A24))*COS(RADIANS(AD24)))-SIN(RADIANS(T24)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD24))))),360))</f>
+        <v>347.39485492095537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>40</v>
+      </c>
+      <c r="B25" s="15">
+        <v>-74</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="16"/>
+        <v>79.695408726209138</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="17"/>
+        <v>0.5070993245979617</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28572318924738077</v>
+      </c>
+      <c r="Z25" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72847545994854257</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="20"/>
+        <v>637.5632698096731</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="21"/>
+        <v>1429.7769725789353</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="22"/>
+        <v>177.44424314473383</v>
+      </c>
+      <c r="AD25" s="9">
+        <f t="shared" si="23"/>
+        <v>153.2073753064634</v>
+      </c>
+      <c r="AE25" s="9">
+        <f t="shared" si="24"/>
+        <v>-63.207375306463405</v>
+      </c>
+      <c r="AF25" s="9">
+        <f t="shared" si="25"/>
+        <v>2.9137045371641574E-3</v>
+      </c>
+      <c r="AG25" s="9">
+        <f t="shared" si="26"/>
+        <v>-63.204461601926241</v>
+      </c>
+      <c r="AH25" s="9">
+        <f>IF(AC25&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A25))*COS(RADIANS(AD25)))-SIN(RADIANS(T25)))/(COS(RADIANS(A25))*SIN(RADIANS(AD25)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A25))*COS(RADIANS(AD25)))-SIN(RADIANS(T25)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD25))))),360))</f>
+        <v>354.47553536413102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>35</v>
+      </c>
+      <c r="B26" s="15">
+        <v>-97</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="16"/>
+        <v>81.539477082094507</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52932079427291368</v>
+      </c>
+      <c r="Y26" s="5">
+        <f t="shared" si="18"/>
+        <v>0.30282224682265113</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" si="19"/>
+        <v>0.75581934172317622</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" si="20"/>
+        <v>652.31581665675606</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" si="21"/>
+        <v>1397.7780562470043</v>
+      </c>
+      <c r="AC26" s="9">
+        <f t="shared" si="22"/>
+        <v>169.44451406175108</v>
+      </c>
+      <c r="AD26" s="9">
+        <f t="shared" si="23"/>
+        <v>156.28578284233095</v>
+      </c>
+      <c r="AE26" s="9">
+        <f t="shared" si="24"/>
+        <v>-66.285782842330946</v>
+      </c>
+      <c r="AF26" s="9">
+        <f t="shared" si="25"/>
+        <v>2.5345607387786211E-3</v>
+      </c>
+      <c r="AG26" s="9">
+        <f t="shared" si="26"/>
+        <v>-66.283248281592165</v>
+      </c>
+      <c r="AH26" s="9">
+        <f>IF(AC26&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A26))*COS(RADIANS(AD26)))-SIN(RADIANS(T26)))/(COS(RADIANS(A26))*SIN(RADIANS(AD26)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A26))*COS(RADIANS(AD26)))-SIN(RADIANS(T26)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD26))))),360))</f>
+        <v>333.68550522247915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>39</v>
+      </c>
+      <c r="B27" s="15">
+        <v>-75</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J27" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T27" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U27" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V27" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W27" s="9">
+        <f t="shared" si="16"/>
+        <v>80.082571151990706</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50987710237573947</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28742551584243192</v>
+      </c>
+      <c r="Z27" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73232868890904701</v>
+      </c>
+      <c r="AA27" s="9">
+        <f t="shared" si="20"/>
+        <v>640.66056921592565</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="21"/>
+        <v>1425.7769725789353</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="22"/>
+        <v>176.44424314473383</v>
+      </c>
+      <c r="AD27" s="9">
+        <f t="shared" si="23"/>
+        <v>154.11007881033868</v>
+      </c>
+      <c r="AE27" s="9">
+        <f t="shared" si="24"/>
+        <v>-64.110078810338678</v>
+      </c>
+      <c r="AF27" s="9">
+        <f t="shared" si="25"/>
+        <v>2.8005072617987466E-3</v>
+      </c>
+      <c r="AG27" s="9">
+        <f t="shared" si="26"/>
+        <v>-64.107278303076882</v>
+      </c>
+      <c r="AH27" s="9">
+        <f>IF(AC27&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A27))*COS(RADIANS(AD27)))-SIN(RADIANS(T27)))/(COS(RADIANS(A27))*SIN(RADIANS(AD27)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A27))*COS(RADIANS(AD27)))-SIN(RADIANS(T27)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD27))))),360))</f>
+        <v>352.05473365579218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>33</v>
+      </c>
+      <c r="B28" s="15">
+        <v>-112</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7916666665</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119210586355953</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
+        <f t="shared" si="2"/>
+        <v>323.48327192548641</v>
+      </c>
+      <c r="J28" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3203239878967</v>
+      </c>
+      <c r="K28" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116896765405E-2</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2584154229669602</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="6"/>
+        <v>324.74168734845335</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5787394108638</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98738497120017499</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="9"/>
+        <v>324.73972762975433</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585065417512</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984326538591</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.970471677751632</v>
+      </c>
+      <c r="T28" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.273690370312794</v>
+      </c>
+      <c r="U28" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042322988369E-2</v>
+      </c>
+      <c r="V28" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.220838289000575</v>
+      </c>
+      <c r="W28" s="9">
+        <f t="shared" si="16"/>
+        <v>82.21893596557814</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52932002658958366</v>
+      </c>
+      <c r="Y28" s="5">
+        <f t="shared" si="18"/>
+        <v>0.30093409335186661</v>
+      </c>
+      <c r="Z28" s="5">
+        <f t="shared" si="19"/>
+        <v>0.75770595982730071</v>
+      </c>
+      <c r="AA28" s="9">
+        <f t="shared" si="20"/>
+        <v>657.75148772462512</v>
+      </c>
+      <c r="AB28" s="9">
+        <f t="shared" si="21"/>
+        <v>1397.7791617109995</v>
+      </c>
+      <c r="AC28" s="9">
+        <f t="shared" si="22"/>
+        <v>169.44479042774987</v>
+      </c>
+      <c r="AD28" s="9">
+        <f t="shared" si="23"/>
+        <v>158.0489433166571</v>
+      </c>
+      <c r="AE28" s="9">
+        <f t="shared" si="24"/>
+        <v>-68.048943316657102</v>
+      </c>
+      <c r="AF28" s="9">
+        <f t="shared" si="25"/>
+        <v>2.3254998652553478E-3</v>
+      </c>
+      <c r="AG28" s="9">
+        <f t="shared" si="26"/>
+        <v>-68.046617816791851</v>
+      </c>
+      <c r="AH28" s="9">
+        <f>IF(AC28&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A28))*COS(RADIANS(AD28)))-SIN(RADIANS(T28)))/(COS(RADIANS(A28))*SIN(RADIANS(AD28)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A28))*COS(RADIANS(AD28)))-SIN(RADIANS(T28)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD28))))),360))</f>
+        <v>331.5139131226631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>40</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-79</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J29" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K29" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T29" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U29" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V29" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W29" s="9">
+        <f t="shared" si="16"/>
+        <v>79.695408726209138</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="17"/>
+        <v>0.52098821348685065</v>
+      </c>
+      <c r="Y29" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29961207813626972</v>
+      </c>
+      <c r="Z29" s="5">
+        <f t="shared" si="19"/>
+        <v>0.74236434883743163</v>
+      </c>
+      <c r="AA29" s="9">
+        <f t="shared" si="20"/>
+        <v>637.5632698096731</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="21"/>
+        <v>1409.7769725789353</v>
+      </c>
+      <c r="AC29" s="9">
+        <f t="shared" si="22"/>
+        <v>172.44424314473383</v>
+      </c>
+      <c r="AD29" s="9">
+        <f t="shared" si="23"/>
+        <v>152.4878075715875</v>
+      </c>
+      <c r="AE29" s="9">
+        <f t="shared" si="24"/>
+        <v>-62.487807571587496</v>
+      </c>
+      <c r="AF29" s="9">
+        <f t="shared" si="25"/>
+        <v>3.0052326328408323E-3</v>
+      </c>
+      <c r="AG29" s="9">
+        <f t="shared" si="26"/>
+        <v>-62.484802338954658</v>
+      </c>
+      <c r="AH29" s="9">
+        <f>IF(AC29&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A29))*COS(RADIANS(AD29)))-SIN(RADIANS(T29)))/(COS(RADIANS(A29))*SIN(RADIANS(AD29)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A29))*COS(RADIANS(AD29)))-SIN(RADIANS(T29)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD29))))),360))</f>
+        <v>343.9179088789873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15">
+        <v>-70</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J30" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K30" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T30" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U30" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V30" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W30" s="9">
+        <f t="shared" si="16"/>
+        <v>78.460608845053486</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="17"/>
+        <v>0.49598821348685057</v>
+      </c>
+      <c r="Y30" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27804207780614643</v>
+      </c>
+      <c r="Z30" s="5">
+        <f t="shared" si="19"/>
+        <v>0.71393434916755472</v>
+      </c>
+      <c r="AA30" s="9">
+        <f t="shared" si="20"/>
+        <v>627.68487076042788</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" si="21"/>
+        <v>5.7769725789352151</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" si="22"/>
+        <v>-178.5557568552662</v>
+      </c>
+      <c r="AD30" s="9">
+        <f t="shared" si="23"/>
+        <v>150.27564805501572</v>
+      </c>
+      <c r="AE30" s="9">
+        <f t="shared" si="24"/>
+        <v>-60.275648055015722</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" si="25"/>
+        <v>3.2944009243506631E-3</v>
+      </c>
+      <c r="AG30" s="9">
+        <f t="shared" si="26"/>
+        <v>-60.272353654091368</v>
+      </c>
+      <c r="AH30" s="9" t="e">
+        <f>IF(AC30&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A30))*COS(RADIANS(AD30)))-SIN(RADIANS(T30)))/(COS(RADIANS(A30))*SIN(RADIANS(AD30)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A30))*COS(RADIANS(AD30)))-SIN(RADIANS(T30)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD30))))),360))</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>45</v>
+      </c>
+      <c r="B31" s="15">
+        <v>-122</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.8333333335</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119324663472931</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9">
+        <f t="shared" si="2"/>
+        <v>323.52434056588845</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3613906665605</v>
+      </c>
+      <c r="K31" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116848772886E-2</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2594653589907534</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="6"/>
+        <v>324.78380592487923</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.6208560255509</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98739292080760133</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="9"/>
+        <v>324.78184609107848</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585050582712</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984234771286</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.92967957462939</v>
+      </c>
+      <c r="T31" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.259633359826987</v>
+      </c>
+      <c r="U31" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041976487478E-2</v>
+      </c>
+      <c r="V31" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.219711042289356</v>
+      </c>
+      <c r="W31" s="9">
+        <f t="shared" si="16"/>
+        <v>77.612448112626751</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51543035489047873</v>
+      </c>
+      <c r="Y31" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29984022124429333</v>
+      </c>
+      <c r="Z31" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73102048853666413</v>
+      </c>
+      <c r="AA31" s="9">
+        <f t="shared" si="20"/>
+        <v>620.89958490101401</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="21"/>
+        <v>1417.7802889577106</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" si="22"/>
+        <v>174.44507223942765</v>
+      </c>
+      <c r="AD31" s="9">
+        <f t="shared" si="23"/>
+        <v>147.90934041742517</v>
+      </c>
+      <c r="AE31" s="9">
+        <f t="shared" si="24"/>
+        <v>-57.90934041742517</v>
+      </c>
+      <c r="AF31" s="9">
+        <f t="shared" si="25"/>
+        <v>3.6182035372805772E-3</v>
+      </c>
+      <c r="AG31" s="9">
+        <f t="shared" si="26"/>
+        <v>-57.905722213887891</v>
+      </c>
+      <c r="AH31" s="9">
+        <f>IF(AC31&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A31))*COS(RADIANS(AD31)))-SIN(RADIANS(T31)))/(COS(RADIANS(A31))*SIN(RADIANS(AD31)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A31))*COS(RADIANS(AD31)))-SIN(RADIANS(T31)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD31))))),360))</f>
+        <v>349.78452426270769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>35</v>
+      </c>
+      <c r="B32" s="15">
+        <v>-78</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T32" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U32" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V32" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W32" s="9">
+        <f t="shared" si="16"/>
+        <v>81.529040762585524</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51821043570907288</v>
+      </c>
+      <c r="Y32" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29174087803522419</v>
+      </c>
+      <c r="Z32" s="5">
+        <f t="shared" si="19"/>
+        <v>0.74467999338292157</v>
+      </c>
+      <c r="AA32" s="9">
+        <f t="shared" si="20"/>
+        <v>652.23232610068419</v>
+      </c>
+      <c r="AB32" s="9">
+        <f t="shared" si="21"/>
+        <v>1413.7769725789353</v>
+      </c>
+      <c r="AC32" s="9">
+        <f t="shared" si="22"/>
+        <v>173.44424314473383</v>
+      </c>
+      <c r="AD32" s="9">
+        <f t="shared" si="23"/>
+        <v>157.50778793663378</v>
+      </c>
+      <c r="AE32" s="9">
+        <f t="shared" si="24"/>
+        <v>-67.507787936633775</v>
+      </c>
+      <c r="AF32" s="9">
+        <f t="shared" si="25"/>
+        <v>2.3890934560281563E-3</v>
+      </c>
+      <c r="AG32" s="9">
+        <f t="shared" si="26"/>
+        <v>-67.505398843177744</v>
+      </c>
+      <c r="AH32" s="9">
+        <f>IF(AC32&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A32))*COS(RADIANS(AD32)))-SIN(RADIANS(T32)))/(COS(RADIANS(A32))*SIN(RADIANS(AD32)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A32))*COS(RADIANS(AD32)))-SIN(RADIANS(T32)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD32))))),360))</f>
+        <v>343.11617653859469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>33</v>
+      </c>
+      <c r="B33" s="15">
+        <v>-77</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J33" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T33" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="16"/>
+        <v>82.199612941847249</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51543265793129511</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28710039975949719</v>
+      </c>
+      <c r="Z33" s="5">
+        <f t="shared" si="19"/>
+        <v>0.74376491610309303</v>
+      </c>
+      <c r="AA33" s="9">
+        <f t="shared" si="20"/>
+        <v>657.59690353477799</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" si="21"/>
+        <v>1417.7769725789353</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" si="22"/>
+        <v>174.44424314473383</v>
+      </c>
+      <c r="AD33" s="9">
+        <f t="shared" si="23"/>
+        <v>159.66009123437595</v>
+      </c>
+      <c r="AE33" s="9">
+        <f t="shared" si="24"/>
+        <v>-69.660091234375955</v>
+      </c>
+      <c r="AF33" s="9">
+        <f t="shared" si="25"/>
+        <v>2.1389579623446583E-3</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" si="26"/>
+        <v>-69.65795227641361</v>
+      </c>
+      <c r="AH33" s="9">
+        <f>IF(AC33&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A33))*COS(RADIANS(AD33)))-SIN(RADIANS(T33)))/(COS(RADIANS(A33))*SIN(RADIANS(AD33)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A33))*COS(RADIANS(AD33)))-SIN(RADIANS(T33)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD33))))),360))</f>
+        <v>344.27272072584242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>38</v>
+      </c>
+      <c r="B34" s="15">
+        <v>-90</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="16"/>
+        <v>80.4705224757369</v>
+      </c>
+      <c r="X34" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50987634982846919</v>
+      </c>
+      <c r="Y34" s="5">
+        <f t="shared" si="18"/>
+        <v>0.28634712072919999</v>
+      </c>
+      <c r="Z34" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73340557892773839</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" si="20"/>
+        <v>643.7641798058952</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="21"/>
+        <v>1425.7780562470043</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" si="22"/>
+        <v>176.44451406175108</v>
+      </c>
+      <c r="AD34" s="9">
+        <f t="shared" si="23"/>
+        <v>155.08620312608446</v>
+      </c>
+      <c r="AE34" s="9">
+        <f t="shared" si="24"/>
+        <v>-65.086203126084456</v>
+      </c>
+      <c r="AF34" s="9">
+        <f t="shared" si="25"/>
+        <v>2.6800338112192988E-3</v>
+      </c>
+      <c r="AG34" s="9">
+        <f t="shared" si="26"/>
+        <v>-65.083523092273239</v>
+      </c>
+      <c r="AH34" s="9">
+        <f>IF(AC34&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A34))*COS(RADIANS(AD34)))-SIN(RADIANS(T34)))/(COS(RADIANS(A34))*SIN(RADIANS(AD34)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A34))*COS(RADIANS(AD34)))-SIN(RADIANS(T34)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD34))))),360))</f>
+        <v>351.76264650060165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>29</v>
+      </c>
+      <c r="B35" s="15">
+        <v>-98</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.75</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119096509240247</v>
+      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9">
+        <f t="shared" si="2"/>
+        <v>323.44220328554093</v>
+      </c>
+      <c r="J35" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2792573096904</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116944757929E-2</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="5"/>
+        <v>1.257364809063499</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="6"/>
+        <v>324.69956809460444</v>
+      </c>
+      <c r="N35" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.5366221187542</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98737702817675499</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="9"/>
+        <v>324.69760849100157</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585080252308</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984418308262</v>
+      </c>
+      <c r="S35" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.011269158096972</v>
+      </c>
+      <c r="T35" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.287741116058582</v>
+      </c>
+      <c r="U35" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022042669498189E-2</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.221943752995639</v>
+      </c>
+      <c r="W35" s="9">
+        <f t="shared" si="16"/>
+        <v>83.463942680816032</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="17"/>
+        <v>0.53209857205069144</v>
+      </c>
+      <c r="Y35" s="5">
+        <f t="shared" si="18"/>
+        <v>0.30025428682620248</v>
+      </c>
+      <c r="Z35" s="5">
+        <f t="shared" si="19"/>
+        <v>0.76394285727518041</v>
+      </c>
+      <c r="AA35" s="9">
+        <f t="shared" si="20"/>
+        <v>667.71154144652826</v>
+      </c>
+      <c r="AB35" s="9">
+        <f t="shared" si="21"/>
+        <v>1393.7780562470043</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" si="22"/>
+        <v>168.44451406175108</v>
+      </c>
+      <c r="AD35" s="9">
+        <f t="shared" si="23"/>
+        <v>160.97578803227196</v>
+      </c>
+      <c r="AE35" s="9">
+        <f t="shared" si="24"/>
+        <v>-70.975788032271964</v>
+      </c>
+      <c r="AF35" s="9">
+        <f t="shared" si="25"/>
+        <v>1.9894980899528743E-3</v>
+      </c>
+      <c r="AG35" s="9">
+        <f t="shared" si="26"/>
+        <v>-70.973798534182009</v>
+      </c>
+      <c r="AH35" s="9">
+        <f>IF(AC35&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A35))*COS(RADIANS(AD35)))-SIN(RADIANS(T35)))/(COS(RADIANS(A35))*SIN(RADIANS(AD35)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A35))*COS(RADIANS(AD35)))-SIN(RADIANS(T35)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD35))))),360))</f>
+        <v>323.26766564586467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>32</v>
+      </c>
+      <c r="B36" s="15">
+        <v>-117</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.8333333335</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119324663472931</v>
+      </c>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9">
+        <f t="shared" si="2"/>
+        <v>323.52434056588845</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3613906665605</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116848772886E-2</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2594653589907534</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="6"/>
+        <v>324.78380592487923</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.6208560255509</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98739292080760133</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" si="9"/>
+        <v>324.78184609107848</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585050582712</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984234771286</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.92967957462939</v>
+      </c>
+      <c r="T36" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.259633359826987</v>
+      </c>
+      <c r="U36" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041976487478E-2</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.219711042289356</v>
+      </c>
+      <c r="W36" s="9">
+        <f t="shared" si="16"/>
+        <v>82.551466511625406</v>
+      </c>
+      <c r="X36" s="4">
+        <f t="shared" si="17"/>
+        <v>0.50154146600158989</v>
+      </c>
+      <c r="Y36" s="5">
+        <f t="shared" si="18"/>
+        <v>0.27223183680263041</v>
+      </c>
+      <c r="Z36" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73085109520054936</v>
+      </c>
+      <c r="AA36" s="9">
+        <f t="shared" si="20"/>
+        <v>660.41173209300325</v>
+      </c>
+      <c r="AB36" s="9">
+        <f t="shared" si="21"/>
+        <v>1437.7802889577106</v>
+      </c>
+      <c r="AC36" s="9">
+        <f t="shared" si="22"/>
+        <v>179.44507223942765</v>
+      </c>
+      <c r="AD36" s="9">
+        <f t="shared" si="23"/>
+        <v>161.25273030829047</v>
+      </c>
+      <c r="AE36" s="9">
+        <f t="shared" si="24"/>
+        <v>-71.252730308290467</v>
+      </c>
+      <c r="AF36" s="9">
+        <f t="shared" si="25"/>
+        <v>1.9583444384660507E-3</v>
+      </c>
+      <c r="AG36" s="9">
+        <f t="shared" si="26"/>
+        <v>-71.250771963852003</v>
+      </c>
+      <c r="AH36" s="9">
+        <f>IF(AC36&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A36))*COS(RADIANS(AD36)))-SIN(RADIANS(T36)))/(COS(RADIANS(A36))*SIN(RADIANS(AD36)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A36))*COS(RADIANS(AD36)))-SIN(RADIANS(T36)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD36))))),360))</f>
+        <v>358.31919002857626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>37</v>
+      </c>
+      <c r="B37" s="15">
+        <v>-122</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D37" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.8333333335</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119324663472931</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9">
+        <f t="shared" si="2"/>
+        <v>323.52434056588845</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3613906665605</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116848772886E-2</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2594653589907534</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="6"/>
+        <v>324.78380592487923</v>
+      </c>
+      <c r="N37" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.6208560255509</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98739292080760133</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="9"/>
+        <v>324.78184609107848</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585050582712</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984234771286</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.92967957462939</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.259633359826987</v>
+      </c>
+      <c r="U37" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041976487478E-2</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.219711042289356</v>
+      </c>
+      <c r="W37" s="9">
+        <f t="shared" si="16"/>
+        <v>80.858691799805229</v>
+      </c>
+      <c r="X37" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51543035489047873</v>
+      </c>
+      <c r="Y37" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29082287766879755</v>
+      </c>
+      <c r="Z37" s="5">
+        <f t="shared" si="19"/>
+        <v>0.7400378321121599</v>
+      </c>
+      <c r="AA37" s="9">
+        <f t="shared" si="20"/>
+        <v>646.86953439844183</v>
+      </c>
+      <c r="AB37" s="9">
+        <f t="shared" si="21"/>
+        <v>1417.7802889577106</v>
+      </c>
+      <c r="AC37" s="9">
+        <f t="shared" si="22"/>
+        <v>174.44507223942765</v>
+      </c>
+      <c r="AD37" s="9">
+        <f t="shared" si="23"/>
+        <v>155.74534343050743</v>
+      </c>
+      <c r="AE37" s="9">
+        <f t="shared" si="24"/>
+        <v>-65.745343430507432</v>
+      </c>
+      <c r="AF37" s="9">
+        <f t="shared" si="25"/>
+        <v>2.5997595976476749E-3</v>
+      </c>
+      <c r="AG37" s="9">
+        <f t="shared" si="26"/>
+        <v>-65.742743670909789</v>
+      </c>
+      <c r="AH37" s="9">
+        <f>IF(AC37&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A37))*COS(RADIANS(AD37)))-SIN(RADIANS(T37)))/(COS(RADIANS(A37))*SIN(RADIANS(AD37)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A37))*COS(RADIANS(AD37)))-SIN(RADIANS(T37)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD37))))),360))</f>
+        <v>346.7406226998408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>47</v>
+      </c>
+      <c r="B38" s="15">
+        <v>-122</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.8333333335</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13119324663472931</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9">
+        <f t="shared" si="2"/>
+        <v>323.52434056588845</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.3613906665605</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116848772886E-2</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2594653589907534</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="6"/>
+        <v>324.78380592487923</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.6208560255509</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98739292080760133</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" si="9"/>
+        <v>324.78184609107848</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585050582712</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435984234771286</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" si="12"/>
+        <v>-32.92967957462939</v>
+      </c>
+      <c r="T38" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.259633359826987</v>
+      </c>
+      <c r="U38" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022041976487478E-2</v>
+      </c>
+      <c r="V38" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.219711042289356</v>
+      </c>
+      <c r="W38" s="9">
+        <f t="shared" si="16"/>
+        <v>76.655890562213457</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51543035489047873</v>
+      </c>
+      <c r="Y38" s="5">
+        <f t="shared" si="18"/>
+        <v>0.3024973255509969</v>
+      </c>
+      <c r="Z38" s="5">
+        <f t="shared" si="19"/>
+        <v>0.72836338422996061</v>
+      </c>
+      <c r="AA38" s="9">
+        <f t="shared" si="20"/>
+        <v>613.24712449770766</v>
+      </c>
+      <c r="AB38" s="9">
+        <f t="shared" si="21"/>
+        <v>1417.7802889577106</v>
+      </c>
+      <c r="AC38" s="9">
+        <f t="shared" si="22"/>
+        <v>174.44507223942765</v>
+      </c>
+      <c r="AD38" s="9">
+        <f t="shared" si="23"/>
+        <v>145.93939634275839</v>
+      </c>
+      <c r="AE38" s="9">
+        <f t="shared" si="24"/>
+        <v>-55.939396342758386</v>
+      </c>
+      <c r="AF38" s="9">
+        <f t="shared" si="25"/>
+        <v>3.9008002935549679E-3</v>
+      </c>
+      <c r="AG38" s="9">
+        <f t="shared" si="26"/>
+        <v>-55.935495542464828</v>
+      </c>
+      <c r="AH38" s="9">
+        <f>IF(AC38&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A38))*COS(RADIANS(AD38)))-SIN(RADIANS(T38)))/(COS(RADIANS(A38))*SIN(RADIANS(AD38)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A38))*COS(RADIANS(AD38)))-SIN(RADIANS(T38)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD38))))),360))</f>
+        <v>350.31519527994703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+      <c r="B39" s="15">
+        <v>-77</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.7083333335</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1311898243212454</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9">
+        <f t="shared" si="2"/>
+        <v>323.40113464559727</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="3"/>
+        <v>5080.2381906314831</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703116992750448E-2</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2563135178143203</v>
+      </c>
+      <c r="M39" s="9">
+        <f t="shared" si="6"/>
+        <v>324.65744816341157</v>
+      </c>
+      <c r="N39" s="9">
+        <f t="shared" si="7"/>
+        <v>5081.4945041492974</v>
+      </c>
+      <c r="O39" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98736909174165111</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="9"/>
+        <v>324.65548867489935</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585095087105</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="11"/>
+        <v>23.43598451008031</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.052072019360743</v>
+      </c>
+      <c r="T39" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.301785588848746</v>
+      </c>
+      <c r="U39" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022043016016968E-2</v>
+      </c>
+      <c r="V39" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.223027421064808</v>
+      </c>
+      <c r="W39" s="9">
+        <f t="shared" si="16"/>
+        <v>80.458838554629267</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" si="17"/>
+        <v>0.51543265793129511</v>
+      </c>
+      <c r="Y39" s="5">
+        <f t="shared" si="18"/>
+        <v>0.29193588416843608</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="19"/>
+        <v>0.73892943169415415</v>
+      </c>
+      <c r="AA39" s="9">
+        <f t="shared" si="20"/>
+        <v>643.67070843703414</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="21"/>
+        <v>1417.7769725789353</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" si="22"/>
+        <v>174.44424314473383</v>
+      </c>
+      <c r="AD39" s="9">
+        <f t="shared" si="23"/>
+        <v>154.81234832234688</v>
+      </c>
+      <c r="AE39" s="9">
+        <f t="shared" si="24"/>
+        <v>-64.812348322346878</v>
+      </c>
+      <c r="AF39" s="9">
+        <f t="shared" si="25"/>
+        <v>2.7136371537860278E-3</v>
+      </c>
+      <c r="AG39" s="9">
+        <f t="shared" si="26"/>
+        <v>-64.809634685193089</v>
+      </c>
+      <c r="AH39" s="9">
+        <f>IF(AC39&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A39))*COS(RADIANS(AD39)))-SIN(RADIANS(T39)))/(COS(RADIANS(A39))*SIN(RADIANS(AD39)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A39))*COS(RADIANS(AD39)))-SIN(RADIANS(T39)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD39))))),360))</f>
+        <v>347.20974040731107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>-39</v>
+      </c>
+      <c r="B40" s="15">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2">
+        <v>41318</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>2456336.1666666665</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.13117499429613994</v>
+      </c>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9">
+        <f t="shared" si="2"/>
+        <v>322.8672423240223</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="3"/>
+        <v>5079.704323812507</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="4"/>
+        <v>1.6703117616653187E-2</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="5"/>
+        <v>1.2425853420689188</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="6"/>
+        <v>324.10982766609123</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="7"/>
+        <v>5080.9469091545761</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="8"/>
+        <v>0.98726651961646339</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="9"/>
+        <v>324.1078696732539</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="10"/>
+        <v>23.437585287939477</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="11"/>
+        <v>23.435985703332893</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="12"/>
+        <v>-33.583000342183063</v>
+      </c>
+      <c r="T40" s="9">
+        <f t="shared" si="13"/>
+        <v>-13.483789087486761</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" si="14"/>
+        <v>4.3022047521576838E-2</v>
+      </c>
+      <c r="V40" s="9">
+        <f t="shared" si="15"/>
+        <v>-14.235125728786862</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="16"/>
+        <v>102.32208115528204</v>
+      </c>
+      <c r="X40" s="4">
+        <f t="shared" si="17"/>
+        <v>0.5209966150894354</v>
+      </c>
+      <c r="Y40" s="5">
+        <f t="shared" si="18"/>
+        <v>0.23676861188031861</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="19"/>
+        <v>0.80522461829855219</v>
+      </c>
+      <c r="AA40" s="9">
+        <f t="shared" si="20"/>
+        <v>818.57664924225628</v>
+      </c>
+      <c r="AB40" s="9">
+        <f t="shared" si="21"/>
+        <v>1409.7648742712131</v>
+      </c>
+      <c r="AC40" s="9">
+        <f t="shared" si="22"/>
+        <v>172.44121856780328</v>
+      </c>
+      <c r="AD40" s="9">
+        <f t="shared" si="23"/>
+        <v>127.04333918727572</v>
+      </c>
+      <c r="AE40" s="9">
+        <f t="shared" si="24"/>
+        <v>-37.04333918727572</v>
+      </c>
+      <c r="AF40" s="9">
+        <f t="shared" si="25"/>
+        <v>7.6450101241622905E-3</v>
+      </c>
+      <c r="AG40" s="9">
+        <f t="shared" si="26"/>
+        <v>-37.035694177151555</v>
+      </c>
+      <c r="AH40" s="9">
+        <f>IF(AC40&gt;0,MOD(DEGREES(ACOS(((SIN(RADIANS(A40))*COS(RADIANS(AD40)))-SIN(RADIANS(T40)))/(COS(RADIANS(A40))*SIN(RADIANS(AD40)))))+180,360),MOD(540-DEGREES(ACOS(((SIN(RADIANS(A40))*COS(RADIANS(AD40)))-SIN(RADIANS(T40)))/(COS(RADIANS(#REF!))*SIN(RADIANS(AD40))))),360))</f>
+        <v>189.22206577441946</v>
       </c>
     </row>
   </sheetData>
@@ -1599,23 +5890,23 @@
     <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <f ca="1">RANDBETWEEN(1,360)</f>
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B2" s="16">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>3.5495762538318352</v>
+        <v>4.8216990477245609</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">RADIANS(A2)</f>
-        <v>3.4208453339088858</v>
+        <v>3.5604716740684323</v>
       </c>
       <c r="E2" s="17">
         <f ca="1">DEGREES(C2)</f>
-        <v>203.37573840442155</v>
+        <v>276.26300551686546</v>
       </c>
       <c r="F2" s="16">
         <f t="shared" ref="F2:F21" ca="1" si="0">MOD(A2,B2)</f>
@@ -1623,45 +5914,45 @@
       </c>
       <c r="G2" s="17">
         <f ca="1">SIN(A2)</f>
-        <v>0.9395300555699313</v>
+        <v>0.20212035931279121</v>
       </c>
       <c r="H2" s="17">
         <f ca="1">ASIN(G2)</f>
-        <v>1.221255477432819</v>
+        <v>0.20352248333656048</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" ref="I2:I21" ca="1" si="1">COS(A2)</f>
-        <v>0.34246645774551659</v>
+        <v>-0.97936068960892453</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">ACOS(I2)</f>
-        <v>1.2212554774328193</v>
+        <v>2.9380701702532326</v>
       </c>
       <c r="K2" s="17">
         <f ca="1">TAN(A2)</f>
-        <v>2.7434221200958802</v>
+        <v>-0.20637989808790605</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(1,360)</f>
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="B3" s="16">
         <f t="shared" ref="B3:B21" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>4.6678910745942579</v>
+        <v>4.2777598217726842</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D21" ca="1" si="4">RADIANS(A3)</f>
-        <v>3.0892327760299634</v>
+        <v>4.6600291028248595</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E21" ca="1" si="5">DEGREES(C3)</f>
-        <v>267.45045780103749</v>
+        <v>245.09758355821006</v>
       </c>
       <c r="F3" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1669,29 +5960,29 @@
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G21" ca="1" si="6">SIN(A3)</f>
-        <v>0.87758978777711572</v>
+        <v>3.5368177256176046E-2</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H21" ca="1" si="7">ASIN(G3)</f>
-        <v>1.0708113989715786</v>
+        <v>3.5375555132425275E-2</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47941231147032193</v>
+        <v>-0.99937435030001431</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J21" ca="1" si="8">ACOS(I3)</f>
-        <v>1.0708113989715786</v>
+        <v>3.106217098457368</v>
       </c>
       <c r="K3" s="17">
         <f t="shared" ref="K3:K21" ca="1" si="9">TAN(A3)</f>
-        <v>1.8305532978191841</v>
+        <v>-3.5390319198765154E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="B4" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1699,61 +5990,61 @@
       </c>
       <c r="C4" s="17">
         <f t="shared" ref="C4:C21" ca="1" si="10">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>2.2773962752671175</v>
+        <v>0.74314438820493445</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2185344634630457</v>
+        <v>3.5430183815484888</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>130.4851948516197</v>
+        <v>42.579037012974382</v>
       </c>
       <c r="F4" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.52157672161837043</v>
+        <v>0.93330970016696035</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.54869790896964232</v>
+        <v>1.2035224833365603</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.85320438551722932</v>
+        <v>-0.35907242107165305</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5928947446201507</v>
+        <v>1.9380701702532326</v>
       </c>
       <c r="K4" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61131509691218988</v>
+        <v>-2.5992241269365493</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>339</v>
       </c>
       <c r="B5" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4246288284769291</v>
+        <v>2.6887766275036662</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1519173063162575</v>
+        <v>5.9166661642607767</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>368.1041168098065</v>
+        <v>154.05555280937915</v>
       </c>
       <c r="F5" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1761,29 +6052,29 @@
       </c>
       <c r="G5" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.6551154023966794E-2</v>
+        <v>-0.28787444850848609</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-2.655427461434199E-2</v>
+        <v>-0.29200658769766979</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.99964745596634996</v>
+        <v>0.95766815854759157</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>3.1150383789754512</v>
+        <v>0.29200658769766963</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6560517776039391E-2</v>
+        <v>-0.30059937352942706</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="B6" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1791,15 +6082,15 @@
       </c>
       <c r="C6" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0149327351138364</v>
+        <v>0.92419324282303117</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3613568165555769</v>
+        <v>2.7750735106709841</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>344.63025977710356</v>
+        <v>52.952372268268945</v>
       </c>
       <c r="F6" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1807,29 +6098,29 @@
       </c>
       <c r="G6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51397845598753522</v>
+        <v>0.93951973171314829</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53981633974483101</v>
+        <v>1.2212253330794554</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.85780309324498782</v>
+        <v>-0.34249477911590703</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.6017763138449621</v>
+        <v>1.920367320510338</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.59917999834111513</v>
+        <v>-2.7431651195920748</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="B7" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -1837,15 +6128,15 @@
       </c>
       <c r="C7" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.80399022653808361</v>
+        <v>2.0149919306654414</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85521133347722145</v>
+        <v>5.9515727493006638</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>46.065246750399147</v>
+        <v>115.45053338004719</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -1853,183 +6144,183 @@
       </c>
       <c r="G7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.95375265275947185</v>
+        <v>0.99060323338977374</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2654824574366923</v>
+        <v>1.4335992412874632</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30059254374363709</v>
+        <v>-0.13676707936387883</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2654824574366916</v>
+        <v>1.7079934123023301</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.1729085521591909</v>
+        <v>-7.242994717714204</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="B8" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7416258847965862</v>
+        <v>4.3712100452407121</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9793506945470716</v>
+        <v>6.213372137099813</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>157.08359220266445</v>
+        <v>250.45188695748246</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97262306248562436</v>
+        <v>-0.84148727148921076</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3362637120549066</v>
+        <v>-1.0000301443533641</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23238842122852266</v>
+        <v>-0.54027694002395044</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8053289415348868</v>
+        <v>2.141562509236429</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.1853335779117016</v>
+        <v>1.5575109895527055</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <v>338</v>
       </c>
       <c r="B9" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9831460364895257</v>
+        <v>5.8389362183818188</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1939525311496229</v>
+        <v>5.8992128717408336</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>228.21745707511161</v>
+        <v>334.54640215935541</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70868040823920841</v>
+        <v>-0.96138919682186075</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78762609179199206</v>
+        <v>-1.2920065876976694</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70552964429420606</v>
+        <v>0.27519231863229304</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78762609179199194</v>
+        <v>1.2920065876976696</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0044658136911517</v>
+        <v>-3.4935175574666069</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="B10" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6962389596994871</v>
+        <v>6.7120411667293798</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1693705988362009</v>
+        <v>2.3911010752322315</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>383.66623100185359</v>
+        <v>384.57163077165836</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.85551997897532228</v>
+        <v>-0.94251445455825089</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0265542746143421</v>
+        <v>-1.2300767579509024</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.5177697997895051</v>
+        <v>0.33416538263076073</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1150383789754512</v>
+        <v>1.2300767579509024</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6523172640102353</v>
+        <v>-2.8205029711281955</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B11" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.7205144751909351</v>
+        <v>6.6181939265725305</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9793506945470716</v>
+        <v>3.8048177693476384</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>270.46555655885334</v>
+        <v>379.19457999172027</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2037,91 +6328,91 @@
       </c>
       <c r="G11" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97262306248562436</v>
+        <v>-0.94252452732940251</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3362637120549066</v>
+        <v>-1.2301069023042666</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23238842122852266</v>
+        <v>-0.33413697099017109</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8053289415348868</v>
+        <v>1.9114857512855268</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.1853335779117016</v>
+        <v>2.82077294391086</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="B12" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.29485645382257031</v>
+        <v>3.2629385299275757</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3982297150257104</v>
+        <v>5.3930673886624785</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>16.894030366227327</v>
+        <v>186.95260657547135</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.623012211003653</v>
+        <v>0.90180137496377455</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67258771281654095</v>
+        <v>1.1239199482002626</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78221210994227119</v>
+        <v>0.43215076086181514</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.67258771281654084</v>
+        <v>1.1239199482002626</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.79647477082607754</v>
+        <v>2.0867749328159468</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="B13" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0090740878180742</v>
+        <v>2.7962034135639802E-2</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3458698374658802</v>
+        <v>3.001966313430247</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>115.11146596107137</v>
+        <v>1.6021065425728995</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2129,75 +6420,75 @@
       </c>
       <c r="G13" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.72716319344364899</v>
+        <v>0.70865914018232268</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.81418036640633418</v>
+        <v>0.78759594743862815</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.68646463135461999</v>
+        <v>-0.70555100668629989</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.327412287183459</v>
+        <v>2.3539967061511651</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0592871944599935</v>
+        <v>-1.0044052569786848</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="B14" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.9722769844242016</v>
+        <v>2.072538851164559</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7453292519943295E-2</v>
+        <v>4.2411500823462207</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>342.18626529062527</v>
+        <v>118.74772904862152</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8414709848078965</v>
+        <v>-0.89000934885627714</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-1.0973656735859207</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54030230586813977</v>
+        <v>-0.4559422758951242</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99999999999999989</v>
+        <v>2.0442269800038724</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5574077246549023</v>
+        <v>1.9520219903034328</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>303</v>
+        <v>147</v>
       </c>
       <c r="B15" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -2205,15 +6496,15 @@
       </c>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.4834344232823202</v>
+        <v>6.6437940909591111</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2883476335428181</v>
+        <v>2.5656340004316642</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>256.8818701777472</v>
+        <v>380.66136136591246</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2221,91 +6512,91 @@
       </c>
       <c r="G15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98663250484391052</v>
+        <v>0.60904402188329243</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4071052553798489</v>
+        <v>0.65485471872028223</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16296103947088339</v>
+        <v>-0.79313641916647837</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4071052553798491</v>
+        <v>2.4867379348695113</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0544072868422907</v>
+        <v>-0.76789314822202714</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="B16" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.50080278308733761</v>
+        <v>4.6067587872305813</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2935099599060509</v>
+        <v>1.1868238913561442</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>28.693885839310088</v>
+        <v>263.94783574311793</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81675999962280854</v>
+        <v>-0.8979276806892913</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9557730199961274</v>
+        <v>-1.1150383789754514</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5769775585030581</v>
+        <v>0.4401430224960407</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.9557730199961274</v>
+        <v>1.1150383789754512</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4155836524073051</v>
+        <v>-2.0400815980159464</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="B17" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7533808001965614</v>
+        <v>2.1117440467791972</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3756140961425354</v>
+        <v>1.1868238913561442</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>386.94021729594567</v>
+        <v>120.99402129232509</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2313,29 +6604,29 @@
       </c>
       <c r="G17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.1236030360001129</v>
+        <v>-0.8979276806892913</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12391994820026263</v>
+        <v>-1.1150383789754514</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99233174366819221</v>
+        <v>0.4401430224960407</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12391994820026286</v>
+        <v>1.1150383789754512</v>
       </c>
       <c r="K17" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12455818005298264</v>
+        <v>-2.0400815980159464</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B18" s="16">
         <f t="shared" ca="1" si="3"/>
@@ -2343,61 +6634,61 @@
       </c>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88882407419963128</v>
+        <v>4.0859250630532022</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9845130209103035</v>
+        <v>3.9793506945470716</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>50.925868181261599</v>
+        <v>234.10626151967327</v>
       </c>
       <c r="F18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97659086794356575</v>
+        <v>0.97262306248562436</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3539967061511653</v>
+        <v>1.3362637120549066</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21510526876214117</v>
+        <v>-0.23238842122852266</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3539967061511651</v>
+        <v>1.8053289415348868</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>4.5400601926838862</v>
+        <v>-4.1853335779117016</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="B19" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3468035785769974</v>
+        <v>4.5386575096609363</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20943951023931956</v>
+        <v>3.2114058236695664</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>134.4619403986602</v>
+        <v>260.04591995892832</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2405,45 +6696,45 @@
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.53657291800043494</v>
+        <v>0.97658438329062935</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.56637061435917291</v>
+        <v>1.3539665617978009</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84385395873249214</v>
+        <v>-0.21513470736462095</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56637061435917291</v>
+        <v>1.7876260917919922</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.63585992866158081</v>
+        <v>-4.53940879764912</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="B20" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.3089784117959251</v>
+        <v>4.873545590400588</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6878070480712677</v>
+        <v>3.717551306747922</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>304.18205652197327</v>
+        <v>279.23359359454668</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2451,45 +6742,45 @@
       </c>
       <c r="G20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-6.1920337256057306E-2</v>
+        <v>-0.58777061981984058</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.1959974100131314E-2</v>
+        <v>-0.62830044410594033</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.99808109481850027</v>
+        <v>0.80902762528643013</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>3.0796326794896602</v>
+        <v>0.62830044410594021</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2039384953301253E-2</v>
+        <v>-0.72651489448428264</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="B21" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8887142861013277</v>
+        <v>6.7414954723928293</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8849555921538759</v>
+        <v>3.4906585039886591</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>222.806916325835</v>
+        <v>386.2592381746623</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" ca="1" si="0"/>
@@ -2497,23 +6788,23 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.92681850541778499</v>
+        <v>-0.87329729721399463</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1858497779470298</v>
+        <v>-1.0619298297467676</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37550959776701209</v>
+        <v>0.48718767500700588</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1858497779470298</v>
+        <v>1.0619298297467674</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4681619615827688</v>
+        <v>-1.7925274837903817</v>
       </c>
     </row>
   </sheetData>
@@ -2557,351 +6848,351 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <f ca="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>10217.03125</v>
+        <v>4306.03125</v>
       </c>
       <c r="B3" s="23">
         <f t="shared" ref="B3:B37" ca="1" si="0">A3</f>
-        <v>10217.03125</v>
+        <v>4306.03125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A37" ca="1" si="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>7565.03125</v>
+        <v>7987.03125</v>
       </c>
       <c r="B4" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>7565.03125</v>
+        <v>7987.03125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>7515.03125</v>
+        <v>2636.03125</v>
       </c>
       <c r="B5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>7515.03125</v>
+        <v>2636.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>5702.03125</v>
+        <v>11200.03125</v>
       </c>
       <c r="B6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>5702.03125</v>
+        <v>11200.03125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>26857.03125</v>
+        <v>28869.03125</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>26857.03125</v>
+        <v>28869.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>38559.03125</v>
+        <v>32894.03125</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>38559.03125</v>
+        <v>32894.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>9000.03125</v>
+        <v>32441.03125</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>9000.03125</v>
+        <v>32441.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>38095.03125</v>
+        <v>6382.03125</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>38095.03125</v>
+        <v>6382.03125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>18707.03125</v>
+        <v>14230.03125</v>
       </c>
       <c r="B11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>18707.03125</v>
+        <v>14230.03125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29479.03125</v>
+        <v>8840.03125</v>
       </c>
       <c r="B12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29479.03125</v>
+        <v>8840.03125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>10969.03125</v>
+        <v>35155.03125</v>
       </c>
       <c r="B13" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>10969.03125</v>
+        <v>35155.03125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>30777.03125</v>
+        <v>22983.03125</v>
       </c>
       <c r="B14" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>30777.03125</v>
+        <v>22983.03125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>26237.03125</v>
+        <v>4270.03125</v>
       </c>
       <c r="B15" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>26237.03125</v>
+        <v>4270.03125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>17493.03125</v>
+        <v>8037.03125</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>17493.03125</v>
+        <v>8037.03125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>16500.03125</v>
+        <v>25286.03125</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>16500.03125</v>
+        <v>25286.03125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32798.03125</v>
+        <v>27187.03125</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32798.03125</v>
+        <v>27187.03125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>36180.03125</v>
+        <v>32212.03125</v>
       </c>
       <c r="B19" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>36180.03125</v>
+        <v>32212.03125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>16224.03125</v>
+        <v>22981.03125</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>16224.03125</v>
+        <v>22981.03125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>5272.03125</v>
+        <v>7805.03125</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>5272.03125</v>
+        <v>7805.03125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>40653.03125</v>
+        <v>21675.03125</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40653.03125</v>
+        <v>21675.03125</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32552.03125</v>
+        <v>587.03125</v>
       </c>
       <c r="B23" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32552.03125</v>
+        <v>587.03125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>13790.03125</v>
+        <v>8175.03125</v>
       </c>
       <c r="B24" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>13790.03125</v>
+        <v>8175.03125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>20322.03125</v>
+        <v>23737.03125</v>
       </c>
       <c r="B25" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>20322.03125</v>
+        <v>23737.03125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35074.03125</v>
+        <v>40293.03125</v>
       </c>
       <c r="B26" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35074.03125</v>
+        <v>40293.03125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35351.03125</v>
+        <v>8984.03125</v>
       </c>
       <c r="B27" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35351.03125</v>
+        <v>8984.03125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>6013.03125</v>
+        <v>13827.03125</v>
       </c>
       <c r="B28" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>6013.03125</v>
+        <v>13827.03125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>25527.03125</v>
+        <v>29844.03125</v>
       </c>
       <c r="B29" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>25527.03125</v>
+        <v>29844.03125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>23061.03125</v>
+        <v>37014.03125</v>
       </c>
       <c r="B30" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>23061.03125</v>
+        <v>37014.03125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>33856.03125</v>
+        <v>19911.03125</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>33856.03125</v>
+        <v>19911.03125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35999.03125</v>
+        <v>13449.03125</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35999.03125</v>
+        <v>13449.03125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>27793.03125</v>
+        <v>35763.03125</v>
       </c>
       <c r="B33" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>27793.03125</v>
+        <v>35763.03125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35621.03125</v>
+        <v>28000.03125</v>
       </c>
       <c r="B34" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35621.03125</v>
+        <v>28000.03125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>39696.03125</v>
+        <v>34634.03125</v>
       </c>
       <c r="B35" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>39696.03125</v>
+        <v>34634.03125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>40518.03125</v>
+        <v>5419.03125</v>
       </c>
       <c r="B36" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40518.03125</v>
+        <v>5419.03125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>15171.03125</v>
+        <v>2152.03125</v>
       </c>
       <c r="B37" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>15171.03125</v>
+        <v>2152.03125</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
+++ b/Source/Innovative.SolarCalculator.Tests/NOAA Solar Calculations Test Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="339"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="339" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5834,18 +5834,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="19" customWidth="1"/>
+    <col min="1" max="2" width="29" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="19" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="29" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="31.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5703125" style="20" customWidth="1"/>
@@ -5853,10 +5852,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -5868,7 +5867,7 @@
       <c r="E1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="17" t="s">
@@ -5888,923 +5887,923 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <f ca="1">RANDBETWEEN(1,360)</f>
-        <v>204</v>
-      </c>
-      <c r="B2" s="16">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+      <c r="A2" s="17">
+        <f ca="1">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
+        <v>115.5315107116607</v>
+      </c>
+      <c r="B2" s="17">
+        <f ca="1">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
+        <v>124.09841474777483</v>
       </c>
       <c r="C2" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>4.8216990477245609</v>
+        <v>6.9579848565336144</v>
       </c>
       <c r="D2" s="17">
         <f ca="1">RADIANS(A2)</f>
-        <v>3.5604716740684323</v>
+        <v>2.0164052517215763</v>
       </c>
       <c r="E2" s="17">
         <f ca="1">DEGREES(C2)</f>
-        <v>276.26300551686546</v>
-      </c>
-      <c r="F2" s="16">
+        <v>398.66316619531574</v>
+      </c>
+      <c r="F2" s="17">
         <f t="shared" ref="F2:F21" ca="1" si="0">MOD(A2,B2)</f>
-        <v>0</v>
+        <v>115.5315107116607</v>
       </c>
       <c r="G2" s="17">
         <f ca="1">SIN(A2)</f>
-        <v>0.20212035931279121</v>
+        <v>0.64987310809703713</v>
       </c>
       <c r="H2" s="17">
         <f ca="1">ASIN(G2)</f>
-        <v>0.20352248333656048</v>
+        <v>0.70741747116164888</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" ref="I2:I21" ca="1" si="1">COS(A2)</f>
-        <v>-0.97936068960892453</v>
+        <v>-0.76004272470190559</v>
       </c>
       <c r="J2" s="17">
         <f ca="1">ACOS(I2)</f>
-        <v>2.9380701702532326</v>
+        <v>2.4341751824281443</v>
       </c>
       <c r="K2" s="17">
         <f ca="1">TAN(A2)</f>
-        <v>-0.20637989808790605</v>
+        <v>-0.85504812686934439</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(1,360)</f>
-        <v>267</v>
-      </c>
-      <c r="B3" s="16">
-        <f t="shared" ref="B3:B21" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+      <c r="A3" s="17">
+        <f t="shared" ref="A3:A21" ca="1" si="2">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
+        <v>322.95898197512804</v>
+      </c>
+      <c r="B3" s="17">
+        <f t="shared" ref="B3:B21" ca="1" si="3">RANDBETWEEN(1,360) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
+        <v>128.39932782873524</v>
       </c>
       <c r="C3" s="17">
         <f ca="1">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>4.2777598217726842</v>
+        <v>6.5697452105302636</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D21" ca="1" si="4">RADIANS(A3)</f>
-        <v>4.6600291028248595</v>
+        <v>5.6366975843550042</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" ref="E3:E21" ca="1" si="5">DEGREES(C3)</f>
-        <v>245.09758355821006</v>
-      </c>
-      <c r="F3" s="16">
+        <v>376.41867303967058</v>
+      </c>
+      <c r="F3" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>66.160326317657564</v>
       </c>
       <c r="G3" s="17">
         <f t="shared" ref="G3:G21" ca="1" si="6">SIN(A3)</f>
-        <v>3.5368177256176046E-2</v>
+        <v>0.58514702006446095</v>
       </c>
       <c r="H3" s="17">
         <f t="shared" ref="H3:H21" ca="1" si="7">ASIN(G3)</f>
-        <v>3.5375555132425275E-2</v>
+        <v>0.62506134462066343</v>
       </c>
       <c r="I3" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.99937435030001431</v>
+        <v>-0.81092722540908768</v>
       </c>
       <c r="J3" s="17">
         <f t="shared" ref="J3:J21" ca="1" si="8">ACOS(I3)</f>
-        <v>3.106217098457368</v>
+        <v>2.5165313089691299</v>
       </c>
       <c r="K3" s="17">
         <f t="shared" ref="K3:K21" ca="1" si="9">TAN(A3)</f>
-        <v>-3.5390319198765154E-2</v>
+        <v>-0.721577722056714</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="B4" s="16">
+        <v>18.356125395144488</v>
+      </c>
+      <c r="B4" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>269.22494908715959</v>
       </c>
       <c r="C4" s="17">
         <f t="shared" ref="C4:C21" ca="1" si="10">RANDBETWEEN(0,2*PI()) + (RANDBETWEEN(0,10000000000000000000)/10000000000000000000)</f>
-        <v>0.74314438820493445</v>
+        <v>0.85044854606701292</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5430183815484888</v>
+        <v>0.32037482605421647</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42.579037012974382</v>
-      </c>
-      <c r="F4" s="16">
+        <v>48.727112382677007</v>
+      </c>
+      <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18.356125395144488</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93330970016696035</v>
+        <v>-0.47364997911386936</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2035224833365603</v>
+        <v>-0.49343052639427121</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.35907242107165305</v>
+        <v>0.88071317537858551</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9380701702532326</v>
+        <v>0.4934305263942711</v>
       </c>
       <c r="K4" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.5992241269365493</v>
+        <v>-0.53780276298269869</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>339</v>
-      </c>
-      <c r="B5" s="16">
+        <v>188.97968062583112</v>
+      </c>
+      <c r="B5" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>73.211205179287461</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6887766275036662</v>
+        <v>1.9752403624847394</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9166661642607767</v>
+        <v>3.2983176462880914</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>154.05555280937915</v>
-      </c>
-      <c r="F5" s="16">
+        <v>113.17293629426644</v>
+      </c>
+      <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>42.5572702672562</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.28787444850848609</v>
+        <v>0.46543091343983561</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.29200658769766979</v>
+        <v>0.48412141044352774</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95766815854759157</v>
+        <v>0.88508421340263443</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29200658769766963</v>
+        <v>0.48412141044352786</v>
       </c>
       <c r="K5" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.30059937352942706</v>
+        <v>0.52586059766055959</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="B6" s="16">
+        <v>8.2420355875180658</v>
+      </c>
+      <c r="B6" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>57.597087578377426</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.92419324282303117</v>
+        <v>6.9092476171140085</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7750735106709841</v>
+        <v>0.14385065806873551</v>
       </c>
       <c r="E6" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>52.952372268268945</v>
-      </c>
-      <c r="F6" s="16">
+        <v>395.87072807145364</v>
+      </c>
+      <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8.2420355875180658</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93951973171314829</v>
+        <v>0.92564717234882221</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2212253330794554</v>
+        <v>1.1827423732513138</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.34249477911590703</v>
+        <v>-0.37838778035585363</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.920367320510338</v>
+        <v>1.9588502803384793</v>
       </c>
       <c r="K6" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.7431651195920748</v>
+        <v>-2.4462924555288232</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="B7" s="16">
+        <v>186.25427466717872</v>
+      </c>
+      <c r="B7" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>56.420850807654581</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.0149919306654414</v>
+        <v>2.5689646828089217</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9515727493006638</v>
+        <v>3.2507503388561343</v>
       </c>
       <c r="E7" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>115.45053338004719</v>
-      </c>
-      <c r="F7" s="16">
+        <v>147.19083404311544</v>
+      </c>
+      <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>16.991722244214976</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99060323338977374</v>
+        <v>-0.78351839382031951</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4335992412874632</v>
+        <v>-0.90030810538091866</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.13676707936387883</v>
+        <v>-0.62136859153422508</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7079934123023301</v>
+        <v>2.2412845482088741</v>
       </c>
       <c r="K7" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.242994717714204</v>
+        <v>1.2609559036219216</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="A8" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
-      </c>
-      <c r="B8" s="16">
+        <v>256.01604234941834</v>
+      </c>
+      <c r="B8" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>176.99605234925255</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3712100452407121</v>
+        <v>4.3878470914161616</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>6.213372137099813</v>
+        <v>4.4683228769225893</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>250.45188695748246</v>
-      </c>
-      <c r="F8" s="16">
+        <v>251.40511948689996</v>
+      </c>
+      <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>79.019990000165791</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.84148727148921076</v>
+        <v>-0.99971777018078645</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0000301443533641</v>
+        <v>-1.5470374086450907</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.54027694002395044</v>
+        <v>-2.3756682949357583E-2</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.141562509236429</v>
+        <v>1.5945552449447036</v>
       </c>
       <c r="K8" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5575109895527055</v>
+        <v>42.081538584822518</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>338</v>
-      </c>
-      <c r="B9" s="16">
+        <v>79.327886296596176</v>
+      </c>
+      <c r="B9" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>229.42069243045535</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>5.8389362183818188</v>
+        <v>4.6768952244997637</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8992128717408336</v>
+        <v>1.3845328045232943</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>334.54640215935541</v>
-      </c>
-      <c r="F9" s="16">
+        <v>267.96635758872611</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>79.327886296596176</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.96138919682186075</v>
+        <v>-0.70899349837560954</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2920065876976694</v>
+        <v>-0.78806995685134551</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27519231863229304</v>
+        <v>-0.70521501633268879</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2920065876976696</v>
+        <v>2.3535226967384477</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.4935175574666069</v>
+        <v>1.0053579148988769</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="B10" s="16">
+        <v>17.984877278315068</v>
+      </c>
+      <c r="B10" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>217.35200374294152</v>
       </c>
       <c r="C10" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7120411667293798</v>
+        <v>1.3247088958217055</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3911010752322315</v>
+        <v>0.31389532407371451</v>
       </c>
       <c r="E10" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>384.57163077165836</v>
-      </c>
-      <c r="F10" s="16">
+        <v>75.900228814019172</v>
+      </c>
+      <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>17.984877278315068</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.94251445455825089</v>
+        <v>-0.76088677943917138</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2300767579509024</v>
+        <v>-0.86467864322369159</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33416538263076073</v>
+        <v>0.64888466531016575</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.2300767579509024</v>
+        <v>0.86467864322369148</v>
       </c>
       <c r="K10" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8205029711281955</v>
+        <v>-1.1726071212909135</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
-      </c>
-      <c r="B11" s="16">
+        <v>17.364654166514736</v>
+      </c>
+      <c r="B11" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>138.46272200847591</v>
       </c>
       <c r="C11" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6181939265725305</v>
+        <v>5.0901829002549341</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8048177693476384</v>
+        <v>0.3030703886758338</v>
       </c>
       <c r="E11" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>379.19457999172027</v>
-      </c>
-      <c r="F11" s="16">
+        <v>291.64599713426861</v>
+      </c>
+      <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>17.364654166514736</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.94252452732940251</v>
+        <v>-0.99631332875726952</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.2301069023042666</v>
+        <v>-1.4849017550240249</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.33413697099017109</v>
+        <v>8.5788990789080907E-2</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.9114857512855268</v>
+        <v>1.4849017550240233</v>
       </c>
       <c r="K11" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.82077294391086</v>
+        <v>-11.613533620028068</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>309</v>
-      </c>
-      <c r="B12" s="16">
+        <v>258.18235093630562</v>
+      </c>
+      <c r="B12" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1.686276807999405</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2629385299275757</v>
+        <v>5.1059319797574778</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3930673886624785</v>
+        <v>4.5061320943779979</v>
       </c>
       <c r="E12" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>186.95260657547135</v>
-      </c>
-      <c r="F12" s="16">
+        <v>292.54835292098034</v>
+      </c>
+      <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0.18199931239665235</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.90180137496377455</v>
+        <v>0.54110735879853311</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1239199482002626</v>
+        <v>0.57175334194257899</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43215076086181514</v>
+        <v>0.84095352205343399</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1239199482002626</v>
+        <v>0.5717533419425791</v>
       </c>
       <c r="K12" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0867749328159468</v>
+        <v>0.64344502354572608</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="B13" s="16">
+        <v>343.79798153728711</v>
+      </c>
+      <c r="B13" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>198.53811812687312</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7962034135639802E-2</v>
+        <v>4.9750745627650961</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.001966313430247</v>
+        <v>6.0004067395363361</v>
       </c>
       <c r="E13" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6021065425728995</v>
-      </c>
-      <c r="F13" s="16">
+        <v>285.05077520933338</v>
+      </c>
+      <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>145.259863410414</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70865914018232268</v>
+        <v>-0.97877215557464625</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78759594743862815</v>
+        <v>-1.3643822959996517</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.70555100668629989</v>
+        <v>-0.2049513783114438</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3539967061511651</v>
+        <v>1.7772103575901417</v>
       </c>
       <c r="K13" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0044052569786848</v>
+        <v>4.7756309991109474</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
-      </c>
-      <c r="B14" s="16">
+        <v>233.28228016359878</v>
+      </c>
+      <c r="B14" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>152.93276653387736</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.072538851164559</v>
+        <v>4.8521232708603916</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2411500823462207</v>
+        <v>4.0715438754146547</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>118.74772904862152</v>
-      </c>
-      <c r="F14" s="16">
+        <v>278.0061850975128</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>80.349513629721429</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.89000934885627714</v>
+        <v>0.72043115124847701</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0973656735859207</v>
+        <v>0.80442379795408481</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.4559422758951242</v>
+        <v>0.69352646403060503</v>
       </c>
       <c r="J14" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0442269800038724</v>
+        <v>0.80442379795408459</v>
       </c>
       <c r="K14" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9520219903034328</v>
+        <v>1.0387940311051846</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="B15" s="16">
+        <v>241.64956082772829</v>
+      </c>
+      <c r="B15" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>263.91367599149157</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6437940909591111</v>
+        <v>2.1472064442878644</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5656340004316642</v>
+        <v>4.2175804724421724</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>380.66136136591246</v>
-      </c>
-      <c r="F15" s="16">
+        <v>123.02586700098696</v>
+      </c>
+      <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>241.64956082772829</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60904402188329243</v>
+        <v>0.25038073708407116</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65485471872028223</v>
+        <v>0.25307349868578533</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.79313641916647837</v>
+        <v>-0.96814745080345965</v>
       </c>
       <c r="J15" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4867379348695113</v>
+        <v>2.8885191549040075</v>
       </c>
       <c r="K15" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.76789314822202714</v>
+        <v>-0.25861839214293414</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B16" s="16">
+        <v>298.90133809111916</v>
+      </c>
+      <c r="B16" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>168.99739411310603</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.6067587872305813</v>
+        <v>4.2307560411862264</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1868238913561442</v>
+        <v>5.2168124883067719</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>263.94783574311793</v>
-      </c>
-      <c r="F16" s="16">
+        <v>242.40446530944706</v>
+      </c>
+      <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>129.90394397801313</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.8979276806892913</v>
+        <v>-0.4349979500050084</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1150383789754514</v>
+        <v>-0.45003600008879985</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4401430224960407</v>
+        <v>-0.90043144297133482</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1150383789754512</v>
+        <v>2.6915566535009936</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.0400815980159464</v>
+        <v>0.48309946681732724</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B17" s="16">
+        <v>105.09225525014067</v>
+      </c>
+      <c r="B17" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>325.55814772664075</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>2.1117440467791972</v>
+        <v>6.949772294902445</v>
       </c>
       <c r="D17" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1868238913561442</v>
+        <v>1.8342058724612516</v>
       </c>
       <c r="E17" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>120.99402129232509</v>
-      </c>
-      <c r="F17" s="16">
+        <v>398.19262107485861</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>105.09225525014067</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.8979276806892913</v>
+        <v>-0.98860630176075981</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.1150383789754514</v>
+        <v>-1.4196976816774904</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4401430224960407</v>
+        <v>-0.15052435058459349</v>
       </c>
       <c r="J17" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1150383789754512</v>
+        <v>1.7218949719123029</v>
       </c>
       <c r="K17" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.0400815980159464</v>
+        <v>6.5677499881002364</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>228</v>
-      </c>
-      <c r="B18" s="16">
+        <v>214.94730367819218</v>
+      </c>
+      <c r="B18" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>351.05887297370276</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0859250630532022</v>
+        <v>3.8865649346976365</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9793506945470716</v>
+        <v>3.7515381674685715</v>
       </c>
       <c r="E18" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>234.10626151967327</v>
-      </c>
-      <c r="F18" s="16">
+        <v>222.68376756171298</v>
+      </c>
+      <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>214.94730367819218</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97262306248562436</v>
+        <v>0.96846724609872181</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3362637120549066</v>
+        <v>1.3190032340862445</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.23238842122852266</v>
+        <v>0.24914091039802716</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8053289415348868</v>
+        <v>1.3190032340862445</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.1853335779117016</v>
+        <v>3.8872268891989674</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="B19" s="16">
+        <v>162.00718263632467</v>
+      </c>
+      <c r="B19" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>232.83618675483763</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.5386575096609363</v>
+        <v>7.4155412974734936E-2</v>
       </c>
       <c r="D19" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2114058236695664</v>
+        <v>2.8275587488836527</v>
       </c>
       <c r="E19" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>260.04591995892832</v>
-      </c>
-      <c r="F19" s="16">
+        <v>4.2487921915019768</v>
+      </c>
+      <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>162.00718263632467</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97658438329062935</v>
+        <v>-0.97694203763691945</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3539665617978009</v>
+        <v>-1.3556353503445775</v>
       </c>
       <c r="I19" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.21513470736462095</v>
+        <v>0.21350469572780806</v>
       </c>
       <c r="J19" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7876260917919922</v>
+        <v>1.3556353503445768</v>
       </c>
       <c r="K19" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.53940879764912</v>
+        <v>-4.575740286679217</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="B20" s="16">
+        <v>234.90555503484239</v>
+      </c>
+      <c r="B20" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>57.163272243788697</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>4.873545590400588</v>
+        <v>6.6538049018356045</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.717551306747922</v>
+        <v>4.0998753665827428</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>279.23359359454668</v>
-      </c>
-      <c r="F20" s="16">
+        <v>381.23493857863917</v>
+      </c>
+      <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6.252466059687606</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.58777061981984058</v>
+        <v>0.65478187095851814</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.62830044410594033</v>
+        <v>0.71389398439209928</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80902762528643013</v>
+        <v>-0.75581790231778878</v>
       </c>
       <c r="J20" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.62830044410594021</v>
+        <v>2.4276986691976941</v>
       </c>
       <c r="K20" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.72651489448428264</v>
+        <v>-0.86632225692268761</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="B21" s="16">
+        <v>276.9843256647186</v>
+      </c>
+      <c r="B21" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>190.50948118423307</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" ca="1" si="10"/>
-        <v>6.7414954723928293</v>
+        <v>3.7838084607000906</v>
       </c>
       <c r="D21" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4906585039886591</v>
+        <v>4.8342884592655713</v>
       </c>
       <c r="E21" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>386.2592381746623</v>
-      </c>
-      <c r="F21" s="16">
+        <v>216.7962552840078</v>
+      </c>
+      <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>86.47484448048553</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.87329729721399463</v>
+        <v>0.50049647355664706</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" ca="1" si="7"/>
-        <v>-1.0619298297467676</v>
+        <v>0.52417214881679164</v>
       </c>
       <c r="I21" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48718767500700588</v>
+        <v>0.8657385748350136</v>
       </c>
       <c r="J21" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0619298297467674</v>
+        <v>0.52417214881679164</v>
       </c>
       <c r="K21" s="17">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.7925274837903817</v>
+        <v>0.57811502005906135</v>
       </c>
     </row>
   </sheetData>
@@ -6848,351 +6847,351 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <f ca="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>4306.03125</v>
+        <v>14715.03125</v>
       </c>
       <c r="B3" s="23">
         <f t="shared" ref="B3:B37" ca="1" si="0">A3</f>
-        <v>4306.03125</v>
+        <v>14715.03125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <f t="shared" ref="A4:A37" ca="1" si="1">$A$2 + RANDBETWEEN(1, NOW() - $A$2)</f>
-        <v>7987.03125</v>
+        <v>1583.03125</v>
       </c>
       <c r="B4" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>7987.03125</v>
+        <v>1583.03125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>2636.03125</v>
+        <v>39219.03125</v>
       </c>
       <c r="B5" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>2636.03125</v>
+        <v>39219.03125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>11200.03125</v>
+        <v>37340.03125</v>
       </c>
       <c r="B6" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>11200.03125</v>
+        <v>37340.03125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>28869.03125</v>
+        <v>7192.03125</v>
       </c>
       <c r="B7" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>28869.03125</v>
+        <v>7192.03125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32894.03125</v>
+        <v>31890.03125</v>
       </c>
       <c r="B8" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32894.03125</v>
+        <v>31890.03125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32441.03125</v>
+        <v>33189.03125</v>
       </c>
       <c r="B9" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32441.03125</v>
+        <v>33189.03125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>6382.03125</v>
+        <v>1451.03125</v>
       </c>
       <c r="B10" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>6382.03125</v>
+        <v>1451.03125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>14230.03125</v>
+        <v>1285.03125</v>
       </c>
       <c r="B11" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>14230.03125</v>
+        <v>1285.03125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8840.03125</v>
+        <v>30202.03125</v>
       </c>
       <c r="B12" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8840.03125</v>
+        <v>30202.03125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35155.03125</v>
+        <v>36495.03125</v>
       </c>
       <c r="B13" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35155.03125</v>
+        <v>36495.03125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>22983.03125</v>
+        <v>32159.03125</v>
       </c>
       <c r="B14" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>22983.03125</v>
+        <v>32159.03125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>4270.03125</v>
+        <v>25248.03125</v>
       </c>
       <c r="B15" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>4270.03125</v>
+        <v>25248.03125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8037.03125</v>
+        <v>38923.03125</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8037.03125</v>
+        <v>38923.03125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>25286.03125</v>
+        <v>22162.03125</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>25286.03125</v>
+        <v>22162.03125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>27187.03125</v>
+        <v>1496.03125</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>27187.03125</v>
+        <v>1496.03125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>32212.03125</v>
+        <v>9379.03125</v>
       </c>
       <c r="B19" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>32212.03125</v>
+        <v>9379.03125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>22981.03125</v>
+        <v>41353.03125</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>22981.03125</v>
+        <v>41353.03125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>7805.03125</v>
+        <v>14356.03125</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>7805.03125</v>
+        <v>14356.03125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>21675.03125</v>
+        <v>27695.03125</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>21675.03125</v>
+        <v>27695.03125</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>587.03125</v>
+        <v>38874.03125</v>
       </c>
       <c r="B23" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>587.03125</v>
+        <v>38874.03125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8175.03125</v>
+        <v>12612.03125</v>
       </c>
       <c r="B24" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8175.03125</v>
+        <v>12612.03125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>23737.03125</v>
+        <v>33454.03125</v>
       </c>
       <c r="B25" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>23737.03125</v>
+        <v>33454.03125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>40293.03125</v>
+        <v>4222.03125</v>
       </c>
       <c r="B26" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>40293.03125</v>
+        <v>4222.03125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>8984.03125</v>
+        <v>10411.03125</v>
       </c>
       <c r="B27" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>8984.03125</v>
+        <v>10411.03125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>13827.03125</v>
+        <v>25231.03125</v>
       </c>
       <c r="B28" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>13827.03125</v>
+        <v>25231.03125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>29844.03125</v>
+        <v>32073.03125</v>
       </c>
       <c r="B29" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>29844.03125</v>
+        <v>32073.03125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>37014.03125</v>
+        <v>1623.03125</v>
       </c>
       <c r="B30" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>37014.03125</v>
+        <v>1623.03125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>19911.03125</v>
+        <v>27142.03125</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>19911.03125</v>
+        <v>27142.03125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>13449.03125</v>
+        <v>6812.03125</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>13449.03125</v>
+        <v>6812.03125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>35763.03125</v>
+        <v>33031.03125</v>
       </c>
       <c r="B33" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>35763.03125</v>
+        <v>33031.03125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>28000.03125</v>
+        <v>27608.03125</v>
       </c>
       <c r="B34" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>28000.03125</v>
+        <v>27608.03125</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>34634.03125</v>
+        <v>36591.03125</v>
       </c>
       <c r="B35" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>34634.03125</v>
+        <v>36591.03125</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>5419.03125</v>
+        <v>22249.03125</v>
       </c>
       <c r="B36" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>5419.03125</v>
+        <v>22249.03125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>2152.03125</v>
+        <v>18006.03125</v>
       </c>
       <c r="B37" s="23">
         <f t="shared" ca="1" si="0"/>
-        <v>2152.03125</v>
+        <v>18006.03125</v>
       </c>
     </row>
   </sheetData>
